--- a/Modulo/CALENDARIO Y FICHA DE ATENCION CIUDADANA/FICHA D ATENCION.xlsx
+++ b/Modulo/CALENDARIO Y FICHA DE ATENCION CIUDADANA/FICHA D ATENCION.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.hernandezalv\Desktop\resp_Maq2011\Modulo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antonio.hernandezalv\Documents\GitHub\JDE20-VRFE152051\Modulo\CALENDARIO Y FICHA DE ATENCION CIUDADANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54725454-F73F-4F04-815A-1391E9C93F2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="4710" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,13 +71,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>FECHA: 18/05/2019</t>
+    <t>FECHA:14/12/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,6 +361,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -361,13 +379,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,18 +401,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -428,7 +437,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPr id="2" name="1 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -467,7 +482,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPr id="4" name="3 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -506,7 +527,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPr id="5" name="4 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -545,7 +572,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="5 Imagen"/>
+        <xdr:cNvPr id="6" name="5 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -584,7 +617,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPr id="7" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -623,7 +662,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPr id="8" name="7 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -662,7 +707,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="8 Imagen"/>
+        <xdr:cNvPr id="9" name="8 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -701,7 +752,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="9 Imagen"/>
+        <xdr:cNvPr id="10" name="9 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -740,7 +797,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="10 Imagen"/>
+        <xdr:cNvPr id="11" name="10 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -779,7 +842,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="11 Imagen"/>
+        <xdr:cNvPr id="12" name="11 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -818,7 +887,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="12 Imagen"/>
+        <xdr:cNvPr id="13" name="12 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -857,7 +932,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="13 Imagen"/>
+        <xdr:cNvPr id="14" name="13 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -896,7 +977,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="15 Imagen"/>
+        <xdr:cNvPr id="16" name="15 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -935,7 +1022,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="16 Imagen"/>
+        <xdr:cNvPr id="17" name="16 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -974,7 +1067,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="17 Imagen"/>
+        <xdr:cNvPr id="18" name="17 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1013,7 +1112,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="18 Imagen"/>
+        <xdr:cNvPr id="19" name="18 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1052,7 +1157,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="19 Imagen"/>
+        <xdr:cNvPr id="20" name="19 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1091,7 +1202,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="20 Imagen"/>
+        <xdr:cNvPr id="21" name="20 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1130,7 +1247,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="21 Imagen"/>
+        <xdr:cNvPr id="22" name="21 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1169,7 +1292,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="22 Imagen"/>
+        <xdr:cNvPr id="23" name="22 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1208,7 +1337,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="23 Imagen"/>
+        <xdr:cNvPr id="24" name="23 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1247,7 +1382,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="24 Imagen"/>
+        <xdr:cNvPr id="25" name="24 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1286,7 +1427,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="25 Imagen"/>
+        <xdr:cNvPr id="26" name="25 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1325,7 +1472,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="26 Imagen"/>
+        <xdr:cNvPr id="27" name="26 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1364,7 +1517,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="27 Imagen"/>
+        <xdr:cNvPr id="28" name="27 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1403,7 +1562,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="28 Imagen"/>
+        <xdr:cNvPr id="29" name="28 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1442,7 +1607,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="29 Imagen"/>
+        <xdr:cNvPr id="30" name="29 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1481,7 +1652,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="30 Imagen"/>
+        <xdr:cNvPr id="31" name="30 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1520,7 +1697,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="31 Imagen"/>
+        <xdr:cNvPr id="32" name="31 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1559,7 +1742,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="32 Imagen"/>
+        <xdr:cNvPr id="33" name="32 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1598,7 +1787,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="33 Imagen"/>
+        <xdr:cNvPr id="34" name="33 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1637,7 +1832,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="34 Imagen"/>
+        <xdr:cNvPr id="35" name="34 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1676,7 +1877,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="35 Imagen"/>
+        <xdr:cNvPr id="36" name="35 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1715,7 +1922,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="36 Imagen"/>
+        <xdr:cNvPr id="37" name="36 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1754,7 +1967,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="37 Imagen"/>
+        <xdr:cNvPr id="38" name="37 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1793,7 +2012,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="38 Imagen"/>
+        <xdr:cNvPr id="39" name="38 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1832,7 +2057,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="39 Imagen"/>
+        <xdr:cNvPr id="40" name="39 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1871,7 +2102,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="40 Imagen"/>
+        <xdr:cNvPr id="41" name="40 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1910,7 +2147,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="41 Imagen"/>
+        <xdr:cNvPr id="42" name="41 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1949,7 +2192,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="42 Imagen"/>
+        <xdr:cNvPr id="43" name="42 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1988,7 +2237,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="43 Imagen"/>
+        <xdr:cNvPr id="44" name="43 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2027,7 +2282,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="44 Imagen"/>
+        <xdr:cNvPr id="45" name="44 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2066,7 +2327,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="45 Imagen"/>
+        <xdr:cNvPr id="46" name="45 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2105,7 +2372,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="46 Imagen"/>
+        <xdr:cNvPr id="47" name="46 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2144,7 +2417,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="47 Imagen"/>
+        <xdr:cNvPr id="48" name="47 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2183,7 +2462,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="48 Imagen"/>
+        <xdr:cNvPr id="49" name="48 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2222,7 +2507,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="49 Imagen"/>
+        <xdr:cNvPr id="50" name="49 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2261,7 +2552,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="50 Imagen"/>
+        <xdr:cNvPr id="51" name="50 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2300,7 +2597,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="51 Imagen"/>
+        <xdr:cNvPr id="52" name="51 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2339,7 +2642,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="52 Imagen"/>
+        <xdr:cNvPr id="53" name="52 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2378,7 +2687,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="53 Imagen"/>
+        <xdr:cNvPr id="54" name="53 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2417,7 +2732,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="54 Imagen"/>
+        <xdr:cNvPr id="55" name="54 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2456,7 +2777,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="55 Imagen"/>
+        <xdr:cNvPr id="56" name="55 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2495,7 +2822,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="56 Imagen"/>
+        <xdr:cNvPr id="57" name="56 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2534,7 +2867,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="57 Imagen"/>
+        <xdr:cNvPr id="58" name="57 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2573,7 +2912,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="58 Imagen"/>
+        <xdr:cNvPr id="59" name="58 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2612,7 +2957,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="59 Imagen"/>
+        <xdr:cNvPr id="60" name="59 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2651,7 +3002,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="60 Imagen"/>
+        <xdr:cNvPr id="61" name="60 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2690,7 +3047,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="61 Imagen"/>
+        <xdr:cNvPr id="62" name="61 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2729,7 +3092,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="62 Imagen"/>
+        <xdr:cNvPr id="63" name="62 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2768,7 +3137,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="63 Imagen"/>
+        <xdr:cNvPr id="64" name="63 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2807,7 +3182,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="64 Imagen"/>
+        <xdr:cNvPr id="65" name="64 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2846,7 +3227,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="65 Imagen"/>
+        <xdr:cNvPr id="66" name="65 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2885,7 +3272,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="66 Imagen"/>
+        <xdr:cNvPr id="67" name="66 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2924,7 +3317,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="67 Imagen"/>
+        <xdr:cNvPr id="68" name="67 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2963,7 +3362,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="68 Imagen"/>
+        <xdr:cNvPr id="69" name="68 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3002,7 +3407,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="69 Imagen"/>
+        <xdr:cNvPr id="70" name="69 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3041,7 +3452,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="70 Imagen"/>
+        <xdr:cNvPr id="71" name="70 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3080,7 +3497,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="71 Imagen"/>
+        <xdr:cNvPr id="72" name="71 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3119,7 +3542,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="72 Imagen"/>
+        <xdr:cNvPr id="73" name="72 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3158,7 +3587,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="73 Imagen"/>
+        <xdr:cNvPr id="74" name="73 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3197,7 +3632,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="74 Imagen"/>
+        <xdr:cNvPr id="75" name="74 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3236,7 +3677,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="75 Imagen"/>
+        <xdr:cNvPr id="76" name="75 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3275,7 +3722,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="76 Imagen"/>
+        <xdr:cNvPr id="77" name="76 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3314,7 +3767,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="77 Imagen"/>
+        <xdr:cNvPr id="78" name="77 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3353,7 +3812,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="78 Imagen"/>
+        <xdr:cNvPr id="79" name="78 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3392,7 +3857,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="79 Imagen"/>
+        <xdr:cNvPr id="80" name="79 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3431,7 +3902,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="80 Imagen"/>
+        <xdr:cNvPr id="81" name="80 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3470,7 +3947,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="81 Imagen"/>
+        <xdr:cNvPr id="82" name="81 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3509,7 +3992,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="82 Imagen"/>
+        <xdr:cNvPr id="83" name="82 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3548,7 +4037,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="83 Imagen"/>
+        <xdr:cNvPr id="84" name="83 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3587,7 +4082,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="84 Imagen"/>
+        <xdr:cNvPr id="85" name="84 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3626,7 +4127,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="85 Imagen"/>
+        <xdr:cNvPr id="86" name="85 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3665,7 +4172,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="86 Imagen"/>
+        <xdr:cNvPr id="87" name="86 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3704,7 +4217,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="87 Imagen"/>
+        <xdr:cNvPr id="88" name="87 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3743,7 +4262,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="88 Imagen"/>
+        <xdr:cNvPr id="89" name="88 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3782,7 +4307,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="89 Imagen"/>
+        <xdr:cNvPr id="90" name="89 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3821,7 +4352,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="90 Imagen"/>
+        <xdr:cNvPr id="91" name="90 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3860,7 +4397,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="91 Imagen"/>
+        <xdr:cNvPr id="92" name="91 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3899,7 +4442,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="92 Imagen"/>
+        <xdr:cNvPr id="93" name="92 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3938,7 +4487,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="93 Imagen"/>
+        <xdr:cNvPr id="94" name="93 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3977,7 +4532,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="94 Imagen"/>
+        <xdr:cNvPr id="95" name="94 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4016,7 +4577,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="95 Imagen"/>
+        <xdr:cNvPr id="96" name="95 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4055,7 +4622,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="96 Imagen"/>
+        <xdr:cNvPr id="97" name="96 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4094,7 +4667,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="97 Imagen"/>
+        <xdr:cNvPr id="98" name="97 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4133,7 +4712,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="98 Imagen"/>
+        <xdr:cNvPr id="99" name="98 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4172,7 +4757,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="99 Imagen"/>
+        <xdr:cNvPr id="100" name="99 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4211,7 +4802,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="100 Imagen"/>
+        <xdr:cNvPr id="101" name="100 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4250,7 +4847,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="101 Imagen"/>
+        <xdr:cNvPr id="102" name="101 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4289,7 +4892,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="102 Imagen"/>
+        <xdr:cNvPr id="103" name="102 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4328,7 +4937,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="103 Imagen"/>
+        <xdr:cNvPr id="104" name="103 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4367,7 +4982,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="104 Imagen"/>
+        <xdr:cNvPr id="105" name="104 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4406,7 +5027,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="105 Imagen"/>
+        <xdr:cNvPr id="106" name="105 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4445,7 +5072,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="106 Imagen"/>
+        <xdr:cNvPr id="107" name="106 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4484,7 +5117,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="107 Imagen"/>
+        <xdr:cNvPr id="108" name="107 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4523,7 +5162,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="108 Imagen"/>
+        <xdr:cNvPr id="109" name="108 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4562,7 +5207,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="109 Imagen"/>
+        <xdr:cNvPr id="110" name="109 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4601,7 +5252,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="110 Imagen"/>
+        <xdr:cNvPr id="111" name="110 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4640,7 +5297,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="111 Imagen"/>
+        <xdr:cNvPr id="112" name="111 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4679,7 +5342,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="112 Imagen"/>
+        <xdr:cNvPr id="113" name="112 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4718,7 +5387,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="113 Imagen"/>
+        <xdr:cNvPr id="114" name="113 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4757,7 +5432,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="114 Imagen"/>
+        <xdr:cNvPr id="115" name="114 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4796,7 +5477,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="115 Imagen"/>
+        <xdr:cNvPr id="116" name="115 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4835,7 +5522,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="116 Imagen"/>
+        <xdr:cNvPr id="117" name="116 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4874,7 +5567,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="117 Imagen"/>
+        <xdr:cNvPr id="118" name="117 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4913,7 +5612,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="118 Imagen"/>
+        <xdr:cNvPr id="119" name="118 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4952,7 +5657,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="119 Imagen"/>
+        <xdr:cNvPr id="120" name="119 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4991,7 +5702,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="120 Imagen"/>
+        <xdr:cNvPr id="121" name="120 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5030,7 +5747,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="121 Imagen"/>
+        <xdr:cNvPr id="122" name="121 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5069,7 +5792,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="122 Imagen"/>
+        <xdr:cNvPr id="123" name="122 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5108,7 +5837,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="123 Imagen"/>
+        <xdr:cNvPr id="124" name="123 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5147,7 +5882,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="124 Imagen"/>
+        <xdr:cNvPr id="125" name="124 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5186,7 +5927,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="125 Imagen"/>
+        <xdr:cNvPr id="126" name="125 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5225,7 +5972,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="126 Imagen"/>
+        <xdr:cNvPr id="127" name="126 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5264,7 +6017,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="127 Imagen"/>
+        <xdr:cNvPr id="128" name="127 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5303,7 +6062,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="128 Imagen"/>
+        <xdr:cNvPr id="129" name="128 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5342,7 +6107,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="129 Imagen"/>
+        <xdr:cNvPr id="130" name="129 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5381,7 +6152,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="130 Imagen"/>
+        <xdr:cNvPr id="131" name="130 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5420,7 +6197,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="131 Imagen"/>
+        <xdr:cNvPr id="132" name="131 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5459,7 +6242,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="132 Imagen"/>
+        <xdr:cNvPr id="133" name="132 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5498,7 +6287,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="133 Imagen"/>
+        <xdr:cNvPr id="134" name="133 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5537,7 +6332,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="134 Imagen"/>
+        <xdr:cNvPr id="135" name="134 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5576,7 +6377,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="135 Imagen"/>
+        <xdr:cNvPr id="136" name="135 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5615,7 +6422,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="136 Imagen"/>
+        <xdr:cNvPr id="137" name="136 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5654,7 +6467,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="137 Imagen"/>
+        <xdr:cNvPr id="138" name="137 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5693,7 +6512,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="138 Imagen"/>
+        <xdr:cNvPr id="139" name="138 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5732,7 +6557,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="139 Imagen"/>
+        <xdr:cNvPr id="140" name="139 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5771,7 +6602,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="140 Imagen"/>
+        <xdr:cNvPr id="141" name="140 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5810,7 +6647,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="141 Imagen"/>
+        <xdr:cNvPr id="142" name="141 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5849,7 +6692,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="142 Imagen"/>
+        <xdr:cNvPr id="143" name="142 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5888,7 +6737,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="143 Imagen"/>
+        <xdr:cNvPr id="144" name="143 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5927,7 +6782,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="144 Imagen"/>
+        <xdr:cNvPr id="145" name="144 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -5966,7 +6827,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="145 Imagen"/>
+        <xdr:cNvPr id="146" name="145 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6005,7 +6872,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="146 Imagen"/>
+        <xdr:cNvPr id="147" name="146 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6044,7 +6917,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="159 Imagen"/>
+        <xdr:cNvPr id="160" name="159 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6083,7 +6962,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="160 Imagen"/>
+        <xdr:cNvPr id="161" name="160 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6122,7 +7007,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="161 Imagen"/>
+        <xdr:cNvPr id="162" name="161 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6161,7 +7052,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="162 Imagen"/>
+        <xdr:cNvPr id="163" name="162 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6200,7 +7097,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="163 Imagen"/>
+        <xdr:cNvPr id="164" name="163 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6239,7 +7142,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="164 Imagen"/>
+        <xdr:cNvPr id="165" name="164 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6278,7 +7187,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="165 Imagen"/>
+        <xdr:cNvPr id="166" name="165 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6317,7 +7232,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="166 Imagen"/>
+        <xdr:cNvPr id="167" name="166 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6356,7 +7277,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="167 Imagen"/>
+        <xdr:cNvPr id="168" name="167 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6395,7 +7322,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="168 Imagen"/>
+        <xdr:cNvPr id="169" name="168 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6434,7 +7367,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="169 Imagen"/>
+        <xdr:cNvPr id="170" name="169 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6473,7 +7412,13 @@
     <xdr:ext cx="714375" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="170 Imagen"/>
+        <xdr:cNvPr id="171" name="170 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6581,6 +7526,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6616,6 +7578,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6791,11 +7770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G842"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A553" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="89" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6836,19 +7815,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="22"/>
-      <c r="E6" s="37" t="str">
+      <c r="E6" s="40" t="str">
         <f t="shared" ref="E6" si="0">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F6" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F6" s="40"/>
       <c r="G6" s="7" t="s">
         <v>6</v>
       </c>
@@ -6888,24 +7867,24 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="22"/>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="30"/>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="22"/>
@@ -6913,7 +7892,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6924,7 +7903,7 @@
       <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="22"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
@@ -6932,7 +7911,7 @@
       <c r="F11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="36"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="31"/>
@@ -6968,19 +7947,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="47" t="str">
+      <c r="A16" s="43" t="str">
         <f t="shared" ref="A16" si="1">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B16" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B16" s="44"/>
       <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="37" t="str">
+      <c r="E16" s="40" t="str">
         <f t="shared" ref="E16" si="2">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F16" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="7" t="s">
         <v>6</v>
       </c>
@@ -7018,30 +7997,30 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="40"/>
-      <c r="E19" s="38" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="E19" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="35" t="s">
+      <c r="G20" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7052,14 +8031,14 @@
       <c r="B21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="39"/>
       <c r="E21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="36"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="17"/>
@@ -7094,19 +8073,19 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="37" t="str">
+      <c r="A26" s="40" t="str">
         <f t="shared" ref="A26" si="3">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B26" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="37" t="str">
+      <c r="E26" s="40" t="str">
         <f t="shared" ref="E26" si="4">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F26" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F26" s="40"/>
       <c r="G26" s="7" t="s">
         <v>6</v>
       </c>
@@ -7144,30 +8123,30 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="E29" s="38" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="E29" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="39"/>
-      <c r="G29" s="40"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7178,14 +8157,14 @@
       <c r="B31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="39"/>
       <c r="E31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
@@ -7220,19 +8199,19 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="40" t="str">
         <f t="shared" ref="A36" si="5">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B36" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B36" s="40"/>
       <c r="C36" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="37" t="str">
+      <c r="E36" s="40" t="str">
         <f t="shared" ref="E36" si="6">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F36" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F36" s="40"/>
       <c r="G36" s="7" t="s">
         <v>6</v>
       </c>
@@ -7270,30 +8249,30 @@
       <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="E39" s="38" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="E39" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="40"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="9"/>
-      <c r="G40" s="35" t="s">
+      <c r="G40" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7304,14 +8283,14 @@
       <c r="B41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="36"/>
+      <c r="C41" s="39"/>
       <c r="E41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="36"/>
+      <c r="G41" s="39"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="17"/>
@@ -7346,19 +8325,19 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="37" t="str">
+      <c r="A46" s="40" t="str">
         <f t="shared" ref="A46" si="7">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B46" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B46" s="40"/>
       <c r="C46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="37" t="str">
+      <c r="E46" s="40" t="str">
         <f t="shared" ref="E46" si="8">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F46" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F46" s="40"/>
       <c r="G46" s="7" t="s">
         <v>6</v>
       </c>
@@ -7396,30 +8375,30 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40"/>
-      <c r="E49" s="38" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="E49" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="35" t="s">
+      <c r="G50" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7430,14 +8409,14 @@
       <c r="B51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="39"/>
       <c r="E51" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="36"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="17"/>
@@ -7472,19 +8451,19 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="37" t="str">
+      <c r="A56" s="40" t="str">
         <f t="shared" ref="A56" si="9">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B56" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B56" s="40"/>
       <c r="C56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="37" t="str">
+      <c r="E56" s="40" t="str">
         <f t="shared" ref="E56" si="10">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F56" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F56" s="40"/>
       <c r="G56" s="7" t="s">
         <v>6</v>
       </c>
@@ -7522,30 +8501,30 @@
       <c r="G58" s="6"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40"/>
-      <c r="E59" s="38" t="s">
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
+      <c r="E59" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="9"/>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="9"/>
-      <c r="G60" s="35" t="s">
+      <c r="G60" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7556,14 +8535,14 @@
       <c r="B61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="36"/>
+      <c r="C61" s="39"/>
       <c r="E61" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="36"/>
+      <c r="G61" s="39"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="17"/>
@@ -7599,19 +8578,19 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="47" t="str">
+      <c r="A71" s="43" t="str">
         <f t="shared" ref="A71" si="11">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B71" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B71" s="44"/>
       <c r="C71" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="37" t="str">
+      <c r="E71" s="40" t="str">
         <f t="shared" ref="E71" si="12">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F71" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F71" s="40"/>
       <c r="G71" s="7" t="s">
         <v>6</v>
       </c>
@@ -7650,30 +8629,30 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
+      <c r="A74" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B74" s="39"/>
-      <c r="C74" s="40"/>
-      <c r="E74" s="38" t="s">
+      <c r="B74" s="36"/>
+      <c r="C74" s="37"/>
+      <c r="E74" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F74" s="39"/>
-      <c r="G74" s="40"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B75" s="9"/>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F75" s="9"/>
-      <c r="G75" s="35" t="s">
+      <c r="G75" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7684,14 +8663,14 @@
       <c r="B76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="36"/>
+      <c r="C76" s="39"/>
       <c r="E76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="36"/>
+      <c r="G76" s="39"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="17"/>
@@ -7726,19 +8705,19 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="47" t="str">
+      <c r="A81" s="43" t="str">
         <f t="shared" ref="A81" si="13">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B81" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B81" s="44"/>
       <c r="C81" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="37" t="str">
+      <c r="E81" s="40" t="str">
         <f t="shared" ref="E81" si="14">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F81" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F81" s="40"/>
       <c r="G81" s="7" t="s">
         <v>6</v>
       </c>
@@ -7776,30 +8755,30 @@
       <c r="G83" s="6"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B84" s="39"/>
-      <c r="C84" s="40"/>
-      <c r="E84" s="38" t="s">
+      <c r="B84" s="36"/>
+      <c r="C84" s="37"/>
+      <c r="E84" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="40"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F85" s="9"/>
-      <c r="G85" s="35" t="s">
+      <c r="G85" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7810,14 +8789,14 @@
       <c r="B86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="36"/>
+      <c r="C86" s="39"/>
       <c r="E86" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="36"/>
+      <c r="G86" s="39"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="17"/>
@@ -7852,19 +8831,19 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="37" t="str">
+      <c r="A91" s="40" t="str">
         <f t="shared" ref="A91" si="15">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B91" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B91" s="40"/>
       <c r="C91" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="37" t="str">
+      <c r="E91" s="40" t="str">
         <f t="shared" ref="E91" si="16">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F91" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F91" s="40"/>
       <c r="G91" s="7" t="s">
         <v>6</v>
       </c>
@@ -7902,30 +8881,30 @@
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="38" t="s">
+      <c r="A94" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="39"/>
-      <c r="C94" s="40"/>
-      <c r="E94" s="38" t="s">
+      <c r="B94" s="36"/>
+      <c r="C94" s="37"/>
+      <c r="E94" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="39"/>
-      <c r="G94" s="40"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="37"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B95" s="9"/>
-      <c r="C95" s="35" t="s">
+      <c r="C95" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="35" t="s">
+      <c r="G95" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7936,14 +8915,14 @@
       <c r="B96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="36"/>
+      <c r="C96" s="39"/>
       <c r="E96" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="36"/>
+      <c r="G96" s="39"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="17"/>
@@ -7978,19 +8957,19 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="37" t="str">
+      <c r="A101" s="40" t="str">
         <f t="shared" ref="A101" si="17">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B101" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B101" s="40"/>
       <c r="C101" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="37" t="str">
+      <c r="E101" s="40" t="str">
         <f t="shared" ref="E101" si="18">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F101" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F101" s="40"/>
       <c r="G101" s="7" t="s">
         <v>6</v>
       </c>
@@ -8028,30 +9007,30 @@
       <c r="G103" s="6"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="38" t="s">
+      <c r="A104" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40"/>
-      <c r="E104" s="38" t="s">
+      <c r="B104" s="36"/>
+      <c r="C104" s="37"/>
+      <c r="E104" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F104" s="39"/>
-      <c r="G104" s="40"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="37"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B105" s="9"/>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="9"/>
-      <c r="G105" s="35" t="s">
+      <c r="G105" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8062,14 +9041,14 @@
       <c r="B106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="36"/>
+      <c r="C106" s="39"/>
       <c r="E106" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="36"/>
+      <c r="G106" s="39"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="17"/>
@@ -8104,19 +9083,19 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="37" t="str">
+      <c r="A111" s="40" t="str">
         <f t="shared" ref="A111" si="19">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B111" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B111" s="40"/>
       <c r="C111" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="37" t="str">
+      <c r="E111" s="40" t="str">
         <f t="shared" ref="E111" si="20">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F111" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F111" s="40"/>
       <c r="G111" s="7" t="s">
         <v>6</v>
       </c>
@@ -8154,30 +9133,30 @@
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="38" t="s">
+      <c r="A114" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B114" s="39"/>
-      <c r="C114" s="40"/>
-      <c r="E114" s="38" t="s">
+      <c r="B114" s="36"/>
+      <c r="C114" s="37"/>
+      <c r="E114" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F114" s="39"/>
-      <c r="G114" s="40"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="37"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B115" s="9"/>
-      <c r="C115" s="35" t="s">
+      <c r="C115" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F115" s="9"/>
-      <c r="G115" s="35" t="s">
+      <c r="G115" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8188,14 +9167,14 @@
       <c r="B116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="36"/>
+      <c r="C116" s="39"/>
       <c r="E116" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="36"/>
+      <c r="G116" s="39"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="17"/>
@@ -8230,19 +9209,19 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="37" t="str">
+      <c r="A121" s="40" t="str">
         <f t="shared" ref="A121" si="21">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B121" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B121" s="40"/>
       <c r="C121" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E121" s="37" t="str">
+      <c r="E121" s="40" t="str">
         <f t="shared" ref="E121" si="22">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F121" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F121" s="40"/>
       <c r="G121" s="7" t="s">
         <v>6</v>
       </c>
@@ -8280,30 +9259,30 @@
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="38" t="s">
+      <c r="A124" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="40"/>
-      <c r="E124" s="38" t="s">
+      <c r="B124" s="36"/>
+      <c r="C124" s="37"/>
+      <c r="E124" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F124" s="39"/>
-      <c r="G124" s="40"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="37"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B125" s="9"/>
-      <c r="C125" s="35" t="s">
+      <c r="C125" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F125" s="9"/>
-      <c r="G125" s="35" t="s">
+      <c r="G125" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8314,14 +9293,14 @@
       <c r="B126" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="36"/>
+      <c r="C126" s="39"/>
       <c r="E126" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F126" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="36"/>
+      <c r="G126" s="39"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="17"/>
@@ -8357,19 +9336,19 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="37" t="str">
+      <c r="A136" s="40" t="str">
         <f t="shared" ref="A136" si="23">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B136" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B136" s="40"/>
       <c r="C136" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="37" t="str">
+      <c r="E136" s="40" t="str">
         <f t="shared" ref="E136" si="24">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F136" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F136" s="40"/>
       <c r="G136" s="7" t="s">
         <v>6</v>
       </c>
@@ -8408,30 +9387,30 @@
       <c r="G138" s="6"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="38" t="s">
+      <c r="A139" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="39"/>
-      <c r="C139" s="40"/>
-      <c r="E139" s="38" t="s">
+      <c r="B139" s="36"/>
+      <c r="C139" s="37"/>
+      <c r="E139" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F139" s="39"/>
-      <c r="G139" s="40"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="37"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B140" s="9"/>
-      <c r="C140" s="35" t="s">
+      <c r="C140" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F140" s="9"/>
-      <c r="G140" s="35" t="s">
+      <c r="G140" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8442,14 +9421,14 @@
       <c r="B141" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C141" s="36"/>
+      <c r="C141" s="39"/>
       <c r="E141" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G141" s="36"/>
+      <c r="G141" s="39"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="17"/>
@@ -8484,19 +9463,19 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="47" t="str">
+      <c r="A146" s="43" t="str">
         <f t="shared" ref="A146" si="25">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B146" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B146" s="44"/>
       <c r="C146" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E146" s="37" t="str">
+      <c r="E146" s="40" t="str">
         <f t="shared" ref="E146" si="26">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F146" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F146" s="40"/>
       <c r="G146" s="7" t="s">
         <v>6</v>
       </c>
@@ -8534,30 +9513,30 @@
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="38" t="s">
+      <c r="A149" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B149" s="39"/>
-      <c r="C149" s="40"/>
-      <c r="E149" s="38" t="s">
+      <c r="B149" s="36"/>
+      <c r="C149" s="37"/>
+      <c r="E149" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F149" s="39"/>
-      <c r="G149" s="40"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="37"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B150" s="9"/>
-      <c r="C150" s="35" t="s">
+      <c r="C150" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F150" s="9"/>
-      <c r="G150" s="35" t="s">
+      <c r="G150" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8568,14 +9547,14 @@
       <c r="B151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C151" s="36"/>
+      <c r="C151" s="39"/>
       <c r="E151" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G151" s="36"/>
+      <c r="G151" s="39"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="17"/>
@@ -8610,19 +9589,19 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" s="37" t="str">
+      <c r="A156" s="40" t="str">
         <f t="shared" ref="A156" si="27">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B156" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B156" s="40"/>
       <c r="C156" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="37" t="str">
+      <c r="E156" s="40" t="str">
         <f t="shared" ref="E156" si="28">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F156" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F156" s="40"/>
       <c r="G156" s="7" t="s">
         <v>6</v>
       </c>
@@ -8660,30 +9639,30 @@
       <c r="G158" s="6"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="40"/>
-      <c r="E159" s="38" t="s">
+      <c r="B159" s="36"/>
+      <c r="C159" s="37"/>
+      <c r="E159" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F159" s="39"/>
-      <c r="G159" s="40"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="37"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B160" s="9"/>
-      <c r="C160" s="35" t="s">
+      <c r="C160" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F160" s="9"/>
-      <c r="G160" s="35" t="s">
+      <c r="G160" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8694,14 +9673,14 @@
       <c r="B161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C161" s="36"/>
+      <c r="C161" s="39"/>
       <c r="E161" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G161" s="36"/>
+      <c r="G161" s="39"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="17"/>
@@ -8736,19 +9715,19 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="37" t="str">
+      <c r="A166" s="40" t="str">
         <f t="shared" ref="A166" si="29">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B166" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B166" s="40"/>
       <c r="C166" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E166" s="37" t="str">
+      <c r="E166" s="40" t="str">
         <f t="shared" ref="E166" si="30">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F166" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F166" s="40"/>
       <c r="G166" s="7" t="s">
         <v>6</v>
       </c>
@@ -8786,30 +9765,30 @@
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="38" t="s">
+      <c r="A169" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B169" s="39"/>
-      <c r="C169" s="40"/>
-      <c r="E169" s="38" t="s">
+      <c r="B169" s="36"/>
+      <c r="C169" s="37"/>
+      <c r="E169" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="39"/>
-      <c r="G169" s="40"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="37"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="9"/>
-      <c r="C170" s="35" t="s">
+      <c r="C170" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F170" s="9"/>
-      <c r="G170" s="35" t="s">
+      <c r="G170" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8820,14 +9799,14 @@
       <c r="B171" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="36"/>
+      <c r="C171" s="39"/>
       <c r="E171" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G171" s="36"/>
+      <c r="G171" s="39"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="17"/>
@@ -8862,19 +9841,19 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="37" t="str">
+      <c r="A176" s="40" t="str">
         <f t="shared" ref="A176" si="31">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B176" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B176" s="40"/>
       <c r="C176" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E176" s="37" t="str">
+      <c r="E176" s="40" t="str">
         <f t="shared" ref="E176" si="32">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F176" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F176" s="40"/>
       <c r="G176" s="7" t="s">
         <v>6</v>
       </c>
@@ -8912,30 +9891,30 @@
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="38" t="s">
+      <c r="A179" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B179" s="39"/>
-      <c r="C179" s="40"/>
-      <c r="E179" s="38" t="s">
+      <c r="B179" s="36"/>
+      <c r="C179" s="37"/>
+      <c r="E179" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F179" s="39"/>
-      <c r="G179" s="40"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="37"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B180" s="9"/>
-      <c r="C180" s="35" t="s">
+      <c r="C180" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F180" s="9"/>
-      <c r="G180" s="35" t="s">
+      <c r="G180" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8946,14 +9925,14 @@
       <c r="B181" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="36"/>
+      <c r="C181" s="39"/>
       <c r="E181" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F181" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G181" s="36"/>
+      <c r="G181" s="39"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="17"/>
@@ -8988,19 +9967,19 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="37" t="str">
+      <c r="A186" s="40" t="str">
         <f t="shared" ref="A186" si="33">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B186" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B186" s="40"/>
       <c r="C186" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E186" s="37" t="str">
+      <c r="E186" s="40" t="str">
         <f t="shared" ref="E186" si="34">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F186" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F186" s="40"/>
       <c r="G186" s="7" t="s">
         <v>6</v>
       </c>
@@ -9038,30 +10017,30 @@
       <c r="G188" s="6"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="38" t="s">
+      <c r="A189" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="39"/>
-      <c r="C189" s="40"/>
-      <c r="E189" s="38" t="s">
+      <c r="B189" s="36"/>
+      <c r="C189" s="37"/>
+      <c r="E189" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F189" s="39"/>
-      <c r="G189" s="40"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="37"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B190" s="9"/>
-      <c r="C190" s="35" t="s">
+      <c r="C190" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F190" s="9"/>
-      <c r="G190" s="35" t="s">
+      <c r="G190" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9072,14 +10051,14 @@
       <c r="B191" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C191" s="36"/>
+      <c r="C191" s="39"/>
       <c r="E191" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G191" s="36"/>
+      <c r="G191" s="39"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="17"/>
@@ -9115,19 +10094,19 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="37" t="str">
+      <c r="A201" s="40" t="str">
         <f t="shared" ref="A201" si="35">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B201" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B201" s="40"/>
       <c r="C201" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E201" s="37" t="str">
+      <c r="E201" s="40" t="str">
         <f t="shared" ref="E201" si="36">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F201" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F201" s="40"/>
       <c r="G201" s="7" t="s">
         <v>6</v>
       </c>
@@ -9166,30 +10145,30 @@
       <c r="G203" s="6"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="38" t="s">
+      <c r="A204" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B204" s="39"/>
-      <c r="C204" s="40"/>
-      <c r="E204" s="38" t="s">
+      <c r="B204" s="36"/>
+      <c r="C204" s="37"/>
+      <c r="E204" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F204" s="39"/>
-      <c r="G204" s="40"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="37"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B205" s="9"/>
-      <c r="C205" s="35" t="s">
+      <c r="C205" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E205" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F205" s="9"/>
-      <c r="G205" s="35" t="s">
+      <c r="G205" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9200,14 +10179,14 @@
       <c r="B206" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C206" s="36"/>
+      <c r="C206" s="39"/>
       <c r="E206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F206" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G206" s="36"/>
+      <c r="G206" s="39"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="17"/>
@@ -9242,19 +10221,19 @@
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="47" t="str">
+      <c r="A211" s="43" t="str">
         <f t="shared" ref="A211" si="37">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B211" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B211" s="44"/>
       <c r="C211" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E211" s="37" t="str">
+      <c r="E211" s="40" t="str">
         <f t="shared" ref="E211" si="38">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F211" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F211" s="40"/>
       <c r="G211" s="7" t="s">
         <v>6</v>
       </c>
@@ -9292,30 +10271,30 @@
       <c r="G213" s="6"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="38" t="s">
+      <c r="A214" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B214" s="39"/>
-      <c r="C214" s="40"/>
-      <c r="E214" s="38" t="s">
+      <c r="B214" s="36"/>
+      <c r="C214" s="37"/>
+      <c r="E214" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F214" s="39"/>
-      <c r="G214" s="40"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="37"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B215" s="9"/>
-      <c r="C215" s="35" t="s">
+      <c r="C215" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F215" s="9"/>
-      <c r="G215" s="35" t="s">
+      <c r="G215" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9326,14 +10305,14 @@
       <c r="B216" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C216" s="36"/>
+      <c r="C216" s="39"/>
       <c r="E216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F216" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G216" s="36"/>
+      <c r="G216" s="39"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="17"/>
@@ -9368,19 +10347,19 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A221" s="37" t="str">
+      <c r="A221" s="40" t="str">
         <f t="shared" ref="A221" si="39">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B221" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B221" s="40"/>
       <c r="C221" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E221" s="37" t="str">
+      <c r="E221" s="40" t="str">
         <f t="shared" ref="E221" si="40">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F221" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F221" s="40"/>
       <c r="G221" s="7" t="s">
         <v>6</v>
       </c>
@@ -9418,30 +10397,30 @@
       <c r="G223" s="6"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" s="38" t="s">
+      <c r="A224" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B224" s="39"/>
-      <c r="C224" s="40"/>
-      <c r="E224" s="38" t="s">
+      <c r="B224" s="36"/>
+      <c r="C224" s="37"/>
+      <c r="E224" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F224" s="39"/>
-      <c r="G224" s="40"/>
+      <c r="F224" s="36"/>
+      <c r="G224" s="37"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B225" s="9"/>
-      <c r="C225" s="35" t="s">
+      <c r="C225" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F225" s="9"/>
-      <c r="G225" s="35" t="s">
+      <c r="G225" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9452,14 +10431,14 @@
       <c r="B226" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C226" s="36"/>
+      <c r="C226" s="39"/>
       <c r="E226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G226" s="36"/>
+      <c r="G226" s="39"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="17"/>
@@ -9494,19 +10473,19 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="37" t="str">
+      <c r="A231" s="40" t="str">
         <f t="shared" ref="A231" si="41">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B231" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B231" s="40"/>
       <c r="C231" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E231" s="37" t="str">
+      <c r="E231" s="40" t="str">
         <f t="shared" ref="E231" si="42">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F231" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F231" s="40"/>
       <c r="G231" s="7" t="s">
         <v>6</v>
       </c>
@@ -9544,30 +10523,30 @@
       <c r="G233" s="6"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="38" t="s">
+      <c r="A234" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B234" s="39"/>
-      <c r="C234" s="40"/>
-      <c r="E234" s="38" t="s">
+      <c r="B234" s="36"/>
+      <c r="C234" s="37"/>
+      <c r="E234" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F234" s="39"/>
-      <c r="G234" s="40"/>
+      <c r="F234" s="36"/>
+      <c r="G234" s="37"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B235" s="9"/>
-      <c r="C235" s="35" t="s">
+      <c r="C235" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F235" s="9"/>
-      <c r="G235" s="35" t="s">
+      <c r="G235" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9578,14 +10557,14 @@
       <c r="B236" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C236" s="36"/>
+      <c r="C236" s="39"/>
       <c r="E236" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F236" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G236" s="36"/>
+      <c r="G236" s="39"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="17"/>
@@ -9620,19 +10599,19 @@
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" s="37" t="str">
+      <c r="A241" s="40" t="str">
         <f t="shared" ref="A241" si="43">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B241" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B241" s="40"/>
       <c r="C241" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E241" s="37" t="str">
+      <c r="E241" s="40" t="str">
         <f t="shared" ref="E241" si="44">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F241" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F241" s="40"/>
       <c r="G241" s="7" t="s">
         <v>6</v>
       </c>
@@ -9670,30 +10649,30 @@
       <c r="G243" s="6"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" s="38" t="s">
+      <c r="A244" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="39"/>
-      <c r="C244" s="40"/>
-      <c r="E244" s="38" t="s">
+      <c r="B244" s="36"/>
+      <c r="C244" s="37"/>
+      <c r="E244" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F244" s="39"/>
-      <c r="G244" s="40"/>
+      <c r="F244" s="36"/>
+      <c r="G244" s="37"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B245" s="9"/>
-      <c r="C245" s="35" t="s">
+      <c r="C245" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F245" s="9"/>
-      <c r="G245" s="35" t="s">
+      <c r="G245" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9704,14 +10683,14 @@
       <c r="B246" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="36"/>
+      <c r="C246" s="39"/>
       <c r="E246" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F246" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G246" s="36"/>
+      <c r="G246" s="39"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="17"/>
@@ -9746,19 +10725,19 @@
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="37" t="str">
+      <c r="A251" s="40" t="str">
         <f t="shared" ref="A251" si="45">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B251" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B251" s="40"/>
       <c r="C251" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E251" s="37" t="str">
+      <c r="E251" s="40" t="str">
         <f t="shared" ref="E251" si="46">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F251" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F251" s="40"/>
       <c r="G251" s="7" t="s">
         <v>6</v>
       </c>
@@ -9796,30 +10775,30 @@
       <c r="G253" s="6"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" s="38" t="s">
+      <c r="A254" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B254" s="39"/>
-      <c r="C254" s="40"/>
-      <c r="E254" s="38" t="s">
+      <c r="B254" s="36"/>
+      <c r="C254" s="37"/>
+      <c r="E254" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F254" s="39"/>
-      <c r="G254" s="40"/>
+      <c r="F254" s="36"/>
+      <c r="G254" s="37"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B255" s="9"/>
-      <c r="C255" s="35" t="s">
+      <c r="C255" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F255" s="9"/>
-      <c r="G255" s="35" t="s">
+      <c r="G255" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9830,14 +10809,14 @@
       <c r="B256" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C256" s="36"/>
+      <c r="C256" s="39"/>
       <c r="E256" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F256" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G256" s="36"/>
+      <c r="G256" s="39"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="17"/>
@@ -9873,19 +10852,19 @@
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" s="37" t="str">
+      <c r="A266" s="40" t="str">
         <f t="shared" ref="A266" si="47">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B266" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B266" s="40"/>
       <c r="C266" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E266" s="37" t="str">
+      <c r="E266" s="40" t="str">
         <f t="shared" ref="E266" si="48">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F266" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F266" s="40"/>
       <c r="G266" s="7" t="s">
         <v>6</v>
       </c>
@@ -9924,30 +10903,30 @@
       <c r="G268" s="6"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" s="38" t="s">
+      <c r="A269" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B269" s="39"/>
-      <c r="C269" s="40"/>
-      <c r="E269" s="38" t="s">
+      <c r="B269" s="36"/>
+      <c r="C269" s="37"/>
+      <c r="E269" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F269" s="39"/>
-      <c r="G269" s="40"/>
+      <c r="F269" s="36"/>
+      <c r="G269" s="37"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B270" s="9"/>
-      <c r="C270" s="35" t="s">
+      <c r="C270" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F270" s="9"/>
-      <c r="G270" s="35" t="s">
+      <c r="G270" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9958,14 +10937,14 @@
       <c r="B271" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="36"/>
+      <c r="C271" s="39"/>
       <c r="E271" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F271" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G271" s="36"/>
+      <c r="G271" s="39"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="17"/>
@@ -10000,19 +10979,19 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276" s="47" t="str">
+      <c r="A276" s="43" t="str">
         <f t="shared" ref="A276" si="49">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B276" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B276" s="44"/>
       <c r="C276" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E276" s="37" t="str">
+      <c r="E276" s="40" t="str">
         <f t="shared" ref="E276" si="50">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F276" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F276" s="40"/>
       <c r="G276" s="7" t="s">
         <v>6</v>
       </c>
@@ -10050,30 +11029,30 @@
       <c r="G278" s="6"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279" s="38" t="s">
+      <c r="A279" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B279" s="39"/>
-      <c r="C279" s="40"/>
-      <c r="E279" s="38" t="s">
+      <c r="B279" s="36"/>
+      <c r="C279" s="37"/>
+      <c r="E279" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F279" s="39"/>
-      <c r="G279" s="40"/>
+      <c r="F279" s="36"/>
+      <c r="G279" s="37"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B280" s="9"/>
-      <c r="C280" s="35" t="s">
+      <c r="C280" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E280" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F280" s="9"/>
-      <c r="G280" s="35" t="s">
+      <c r="G280" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10084,14 +11063,14 @@
       <c r="B281" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C281" s="36"/>
+      <c r="C281" s="39"/>
       <c r="E281" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F281" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G281" s="36"/>
+      <c r="G281" s="39"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="17"/>
@@ -10126,19 +11105,19 @@
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A286" s="37" t="str">
+      <c r="A286" s="40" t="str">
         <f t="shared" ref="A286" si="51">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B286" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B286" s="40"/>
       <c r="C286" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E286" s="37" t="str">
+      <c r="E286" s="40" t="str">
         <f t="shared" ref="E286" si="52">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F286" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F286" s="40"/>
       <c r="G286" s="7" t="s">
         <v>6</v>
       </c>
@@ -10176,30 +11155,30 @@
       <c r="G288" s="6"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" s="38" t="s">
+      <c r="A289" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B289" s="39"/>
-      <c r="C289" s="40"/>
-      <c r="E289" s="38" t="s">
+      <c r="B289" s="36"/>
+      <c r="C289" s="37"/>
+      <c r="E289" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F289" s="39"/>
-      <c r="G289" s="40"/>
+      <c r="F289" s="36"/>
+      <c r="G289" s="37"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B290" s="9"/>
-      <c r="C290" s="35" t="s">
+      <c r="C290" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="9"/>
-      <c r="G290" s="35" t="s">
+      <c r="G290" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10210,14 +11189,14 @@
       <c r="B291" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C291" s="36"/>
+      <c r="C291" s="39"/>
       <c r="E291" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F291" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G291" s="36"/>
+      <c r="G291" s="39"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="17"/>
@@ -10252,19 +11231,19 @@
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A296" s="37" t="str">
+      <c r="A296" s="40" t="str">
         <f t="shared" ref="A296" si="53">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B296" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B296" s="40"/>
       <c r="C296" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E296" s="37" t="str">
+      <c r="E296" s="40" t="str">
         <f t="shared" ref="E296" si="54">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F296" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F296" s="40"/>
       <c r="G296" s="7" t="s">
         <v>6</v>
       </c>
@@ -10302,30 +11281,30 @@
       <c r="G298" s="6"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A299" s="38" t="s">
+      <c r="A299" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B299" s="39"/>
-      <c r="C299" s="40"/>
-      <c r="E299" s="38" t="s">
+      <c r="B299" s="36"/>
+      <c r="C299" s="37"/>
+      <c r="E299" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F299" s="39"/>
-      <c r="G299" s="40"/>
+      <c r="F299" s="36"/>
+      <c r="G299" s="37"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B300" s="9"/>
-      <c r="C300" s="35" t="s">
+      <c r="C300" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E300" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="9"/>
-      <c r="G300" s="35" t="s">
+      <c r="G300" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10336,14 +11315,14 @@
       <c r="B301" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C301" s="36"/>
+      <c r="C301" s="39"/>
       <c r="E301" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F301" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G301" s="36"/>
+      <c r="G301" s="39"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="17"/>
@@ -10378,19 +11357,19 @@
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A306" s="37" t="str">
+      <c r="A306" s="40" t="str">
         <f t="shared" ref="A306" si="55">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B306" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B306" s="40"/>
       <c r="C306" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E306" s="37" t="str">
+      <c r="E306" s="40" t="str">
         <f t="shared" ref="E306" si="56">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F306" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F306" s="40"/>
       <c r="G306" s="7" t="s">
         <v>6</v>
       </c>
@@ -10428,30 +11407,30 @@
       <c r="G308" s="6"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A309" s="38" t="s">
+      <c r="A309" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B309" s="39"/>
-      <c r="C309" s="40"/>
-      <c r="E309" s="38" t="s">
+      <c r="B309" s="36"/>
+      <c r="C309" s="37"/>
+      <c r="E309" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F309" s="39"/>
-      <c r="G309" s="40"/>
+      <c r="F309" s="36"/>
+      <c r="G309" s="37"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B310" s="9"/>
-      <c r="C310" s="35" t="s">
+      <c r="C310" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F310" s="9"/>
-      <c r="G310" s="35" t="s">
+      <c r="G310" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10462,14 +11441,14 @@
       <c r="B311" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C311" s="36"/>
+      <c r="C311" s="39"/>
       <c r="E311" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F311" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G311" s="36"/>
+      <c r="G311" s="39"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="17"/>
@@ -10504,19 +11483,19 @@
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A316" s="37" t="str">
+      <c r="A316" s="40" t="str">
         <f t="shared" ref="A316" si="57">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B316" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B316" s="40"/>
       <c r="C316" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E316" s="37" t="str">
+      <c r="E316" s="40" t="str">
         <f t="shared" ref="E316" si="58">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F316" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F316" s="40"/>
       <c r="G316" s="7" t="s">
         <v>6</v>
       </c>
@@ -10554,30 +11533,30 @@
       <c r="G318" s="6"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A319" s="38" t="s">
+      <c r="A319" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B319" s="39"/>
-      <c r="C319" s="40"/>
-      <c r="E319" s="38" t="s">
+      <c r="B319" s="36"/>
+      <c r="C319" s="37"/>
+      <c r="E319" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F319" s="39"/>
-      <c r="G319" s="40"/>
+      <c r="F319" s="36"/>
+      <c r="G319" s="37"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B320" s="9"/>
-      <c r="C320" s="35" t="s">
+      <c r="C320" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E320" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F320" s="9"/>
-      <c r="G320" s="35" t="s">
+      <c r="G320" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10588,14 +11567,14 @@
       <c r="B321" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C321" s="36"/>
+      <c r="C321" s="39"/>
       <c r="E321" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F321" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G321" s="36"/>
+      <c r="G321" s="39"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="17"/>
@@ -10631,19 +11610,19 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A331" s="37" t="str">
+      <c r="A331" s="40" t="str">
         <f t="shared" ref="A331" si="59">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B331" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B331" s="40"/>
       <c r="C331" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E331" s="37" t="str">
+      <c r="E331" s="40" t="str">
         <f t="shared" ref="E331" si="60">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F331" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F331" s="40"/>
       <c r="G331" s="7" t="s">
         <v>6</v>
       </c>
@@ -10682,30 +11661,30 @@
       <c r="G333" s="6"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A334" s="38" t="s">
+      <c r="A334" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B334" s="39"/>
-      <c r="C334" s="40"/>
-      <c r="E334" s="38" t="s">
+      <c r="B334" s="36"/>
+      <c r="C334" s="37"/>
+      <c r="E334" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F334" s="39"/>
-      <c r="G334" s="40"/>
+      <c r="F334" s="36"/>
+      <c r="G334" s="37"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B335" s="9"/>
-      <c r="C335" s="35" t="s">
+      <c r="C335" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E335" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F335" s="9"/>
-      <c r="G335" s="35" t="s">
+      <c r="G335" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10716,14 +11695,14 @@
       <c r="B336" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C336" s="36"/>
+      <c r="C336" s="39"/>
       <c r="E336" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F336" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G336" s="36"/>
+      <c r="G336" s="39"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="17"/>
@@ -10758,19 +11737,19 @@
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A341" s="47" t="str">
+      <c r="A341" s="43" t="str">
         <f t="shared" ref="A341" si="61">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B341" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B341" s="44"/>
       <c r="C341" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E341" s="37" t="str">
+      <c r="E341" s="40" t="str">
         <f t="shared" ref="E341" si="62">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F341" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F341" s="40"/>
       <c r="G341" s="7" t="s">
         <v>6</v>
       </c>
@@ -10808,30 +11787,30 @@
       <c r="G343" s="6"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A344" s="38" t="s">
+      <c r="A344" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B344" s="39"/>
-      <c r="C344" s="40"/>
-      <c r="E344" s="38" t="s">
+      <c r="B344" s="36"/>
+      <c r="C344" s="37"/>
+      <c r="E344" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F344" s="39"/>
-      <c r="G344" s="40"/>
+      <c r="F344" s="36"/>
+      <c r="G344" s="37"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B345" s="9"/>
-      <c r="C345" s="35" t="s">
+      <c r="C345" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E345" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F345" s="9"/>
-      <c r="G345" s="35" t="s">
+      <c r="G345" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10842,14 +11821,14 @@
       <c r="B346" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C346" s="36"/>
+      <c r="C346" s="39"/>
       <c r="E346" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F346" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G346" s="36"/>
+      <c r="G346" s="39"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="17"/>
@@ -10884,19 +11863,19 @@
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A351" s="37" t="str">
+      <c r="A351" s="40" t="str">
         <f t="shared" ref="A351" si="63">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B351" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B351" s="40"/>
       <c r="C351" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E351" s="37" t="str">
+      <c r="E351" s="40" t="str">
         <f t="shared" ref="E351" si="64">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F351" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F351" s="40"/>
       <c r="G351" s="7" t="s">
         <v>6</v>
       </c>
@@ -10934,30 +11913,30 @@
       <c r="G353" s="6"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A354" s="38" t="s">
+      <c r="A354" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B354" s="39"/>
-      <c r="C354" s="40"/>
-      <c r="E354" s="38" t="s">
+      <c r="B354" s="36"/>
+      <c r="C354" s="37"/>
+      <c r="E354" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F354" s="39"/>
-      <c r="G354" s="40"/>
+      <c r="F354" s="36"/>
+      <c r="G354" s="37"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B355" s="9"/>
-      <c r="C355" s="35" t="s">
+      <c r="C355" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E355" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F355" s="9"/>
-      <c r="G355" s="35" t="s">
+      <c r="G355" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -10968,14 +11947,14 @@
       <c r="B356" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C356" s="36"/>
+      <c r="C356" s="39"/>
       <c r="E356" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F356" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G356" s="36"/>
+      <c r="G356" s="39"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="17"/>
@@ -11010,19 +11989,19 @@
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A361" s="37" t="str">
+      <c r="A361" s="40" t="str">
         <f t="shared" ref="A361" si="65">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B361" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B361" s="40"/>
       <c r="C361" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E361" s="37" t="str">
+      <c r="E361" s="40" t="str">
         <f t="shared" ref="E361" si="66">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F361" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F361" s="40"/>
       <c r="G361" s="7" t="s">
         <v>6</v>
       </c>
@@ -11060,30 +12039,30 @@
       <c r="G363" s="6"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A364" s="38" t="s">
+      <c r="A364" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B364" s="39"/>
-      <c r="C364" s="40"/>
-      <c r="E364" s="38" t="s">
+      <c r="B364" s="36"/>
+      <c r="C364" s="37"/>
+      <c r="E364" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F364" s="39"/>
-      <c r="G364" s="40"/>
+      <c r="F364" s="36"/>
+      <c r="G364" s="37"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B365" s="9"/>
-      <c r="C365" s="35" t="s">
+      <c r="C365" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E365" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F365" s="9"/>
-      <c r="G365" s="35" t="s">
+      <c r="G365" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11094,14 +12073,14 @@
       <c r="B366" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C366" s="36"/>
+      <c r="C366" s="39"/>
       <c r="E366" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F366" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G366" s="36"/>
+      <c r="G366" s="39"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="17"/>
@@ -11136,19 +12115,19 @@
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A371" s="37" t="str">
+      <c r="A371" s="40" t="str">
         <f t="shared" ref="A371" si="67">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B371" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B371" s="40"/>
       <c r="C371" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E371" s="37" t="str">
+      <c r="E371" s="40" t="str">
         <f t="shared" ref="E371" si="68">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F371" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F371" s="40"/>
       <c r="G371" s="7" t="s">
         <v>6</v>
       </c>
@@ -11186,30 +12165,30 @@
       <c r="G373" s="6"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" s="38" t="s">
+      <c r="A374" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B374" s="39"/>
-      <c r="C374" s="40"/>
-      <c r="E374" s="38" t="s">
+      <c r="B374" s="36"/>
+      <c r="C374" s="37"/>
+      <c r="E374" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F374" s="39"/>
-      <c r="G374" s="40"/>
+      <c r="F374" s="36"/>
+      <c r="G374" s="37"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B375" s="9"/>
-      <c r="C375" s="35" t="s">
+      <c r="C375" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E375" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F375" s="9"/>
-      <c r="G375" s="35" t="s">
+      <c r="G375" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11220,14 +12199,14 @@
       <c r="B376" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C376" s="36"/>
+      <c r="C376" s="39"/>
       <c r="E376" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F376" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G376" s="36"/>
+      <c r="G376" s="39"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="17"/>
@@ -11262,19 +12241,19 @@
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A381" s="37" t="str">
+      <c r="A381" s="40" t="str">
         <f t="shared" ref="A381" si="69">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B381" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B381" s="40"/>
       <c r="C381" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E381" s="37" t="str">
+      <c r="E381" s="40" t="str">
         <f t="shared" ref="E381" si="70">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F381" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F381" s="40"/>
       <c r="G381" s="7" t="s">
         <v>6</v>
       </c>
@@ -11312,30 +12291,30 @@
       <c r="G383" s="6"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A384" s="38" t="s">
+      <c r="A384" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B384" s="39"/>
-      <c r="C384" s="40"/>
-      <c r="E384" s="38" t="s">
+      <c r="B384" s="36"/>
+      <c r="C384" s="37"/>
+      <c r="E384" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F384" s="39"/>
-      <c r="G384" s="40"/>
+      <c r="F384" s="36"/>
+      <c r="G384" s="37"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B385" s="9"/>
-      <c r="C385" s="35" t="s">
+      <c r="C385" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E385" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F385" s="9"/>
-      <c r="G385" s="35" t="s">
+      <c r="G385" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11346,14 +12325,14 @@
       <c r="B386" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C386" s="36"/>
+      <c r="C386" s="39"/>
       <c r="E386" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F386" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G386" s="36"/>
+      <c r="G386" s="39"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" s="17"/>
@@ -11389,19 +12368,19 @@
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A396" s="37" t="str">
+      <c r="A396" s="40" t="str">
         <f t="shared" ref="A396" si="71">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B396" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B396" s="40"/>
       <c r="C396" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E396" s="37" t="str">
+      <c r="E396" s="40" t="str">
         <f t="shared" ref="E396" si="72">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F396" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F396" s="40"/>
       <c r="G396" s="7" t="s">
         <v>6</v>
       </c>
@@ -11440,30 +12419,30 @@
       <c r="G398" s="6"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A399" s="38" t="s">
+      <c r="A399" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B399" s="39"/>
-      <c r="C399" s="40"/>
-      <c r="E399" s="38" t="s">
+      <c r="B399" s="36"/>
+      <c r="C399" s="37"/>
+      <c r="E399" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F399" s="39"/>
-      <c r="G399" s="40"/>
+      <c r="F399" s="36"/>
+      <c r="G399" s="37"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B400" s="9"/>
-      <c r="C400" s="35" t="s">
+      <c r="C400" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E400" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F400" s="9"/>
-      <c r="G400" s="35" t="s">
+      <c r="G400" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11474,14 +12453,14 @@
       <c r="B401" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C401" s="36"/>
+      <c r="C401" s="39"/>
       <c r="E401" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F401" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G401" s="36"/>
+      <c r="G401" s="39"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="17"/>
@@ -11516,19 +12495,19 @@
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="47" t="str">
+      <c r="A406" s="43" t="str">
         <f t="shared" ref="A406" si="73">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B406" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B406" s="44"/>
       <c r="C406" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E406" s="37" t="str">
+      <c r="E406" s="40" t="str">
         <f t="shared" ref="E406" si="74">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F406" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F406" s="40"/>
       <c r="G406" s="7" t="s">
         <v>6</v>
       </c>
@@ -11566,30 +12545,30 @@
       <c r="G408" s="6"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A409" s="38" t="s">
+      <c r="A409" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B409" s="39"/>
-      <c r="C409" s="40"/>
-      <c r="E409" s="38" t="s">
+      <c r="B409" s="36"/>
+      <c r="C409" s="37"/>
+      <c r="E409" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F409" s="39"/>
-      <c r="G409" s="40"/>
+      <c r="F409" s="36"/>
+      <c r="G409" s="37"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B410" s="9"/>
-      <c r="C410" s="35" t="s">
+      <c r="C410" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E410" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F410" s="9"/>
-      <c r="G410" s="35" t="s">
+      <c r="G410" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11600,14 +12579,14 @@
       <c r="B411" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C411" s="36"/>
+      <c r="C411" s="39"/>
       <c r="E411" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F411" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G411" s="36"/>
+      <c r="G411" s="39"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="17"/>
@@ -11642,19 +12621,19 @@
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A416" s="37" t="str">
+      <c r="A416" s="40" t="str">
         <f t="shared" ref="A416" si="75">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B416" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B416" s="40"/>
       <c r="C416" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E416" s="37" t="str">
+      <c r="E416" s="40" t="str">
         <f t="shared" ref="E416" si="76">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F416" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F416" s="40"/>
       <c r="G416" s="7" t="s">
         <v>6</v>
       </c>
@@ -11692,30 +12671,30 @@
       <c r="G418" s="6"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A419" s="38" t="s">
+      <c r="A419" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B419" s="39"/>
-      <c r="C419" s="40"/>
-      <c r="E419" s="38" t="s">
+      <c r="B419" s="36"/>
+      <c r="C419" s="37"/>
+      <c r="E419" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F419" s="39"/>
-      <c r="G419" s="40"/>
+      <c r="F419" s="36"/>
+      <c r="G419" s="37"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B420" s="9"/>
-      <c r="C420" s="35" t="s">
+      <c r="C420" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E420" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F420" s="9"/>
-      <c r="G420" s="35" t="s">
+      <c r="G420" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11726,14 +12705,14 @@
       <c r="B421" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C421" s="36"/>
+      <c r="C421" s="39"/>
       <c r="E421" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G421" s="36"/>
+      <c r="G421" s="39"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="17"/>
@@ -11768,19 +12747,19 @@
       </c>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A426" s="37" t="str">
+      <c r="A426" s="40" t="str">
         <f t="shared" ref="A426" si="77">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B426" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B426" s="40"/>
       <c r="C426" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E426" s="37" t="str">
+      <c r="E426" s="40" t="str">
         <f t="shared" ref="E426" si="78">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F426" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F426" s="40"/>
       <c r="G426" s="7" t="s">
         <v>6</v>
       </c>
@@ -11818,30 +12797,30 @@
       <c r="G428" s="6"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A429" s="38" t="s">
+      <c r="A429" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B429" s="39"/>
-      <c r="C429" s="40"/>
-      <c r="E429" s="38" t="s">
+      <c r="B429" s="36"/>
+      <c r="C429" s="37"/>
+      <c r="E429" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F429" s="39"/>
-      <c r="G429" s="40"/>
+      <c r="F429" s="36"/>
+      <c r="G429" s="37"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B430" s="9"/>
-      <c r="C430" s="35" t="s">
+      <c r="C430" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E430" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F430" s="9"/>
-      <c r="G430" s="35" t="s">
+      <c r="G430" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11852,14 +12831,14 @@
       <c r="B431" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C431" s="36"/>
+      <c r="C431" s="39"/>
       <c r="E431" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F431" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G431" s="36"/>
+      <c r="G431" s="39"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="17"/>
@@ -11894,19 +12873,19 @@
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A436" s="37" t="str">
+      <c r="A436" s="40" t="str">
         <f t="shared" ref="A436" si="79">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B436" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B436" s="40"/>
       <c r="C436" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E436" s="37" t="str">
+      <c r="E436" s="40" t="str">
         <f t="shared" ref="E436" si="80">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F436" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F436" s="40"/>
       <c r="G436" s="7" t="s">
         <v>6</v>
       </c>
@@ -11944,30 +12923,30 @@
       <c r="G438" s="6"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A439" s="38" t="s">
+      <c r="A439" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B439" s="39"/>
-      <c r="C439" s="40"/>
-      <c r="E439" s="38" t="s">
+      <c r="B439" s="36"/>
+      <c r="C439" s="37"/>
+      <c r="E439" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F439" s="39"/>
-      <c r="G439" s="40"/>
+      <c r="F439" s="36"/>
+      <c r="G439" s="37"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B440" s="9"/>
-      <c r="C440" s="35" t="s">
+      <c r="C440" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E440" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F440" s="9"/>
-      <c r="G440" s="35" t="s">
+      <c r="G440" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11978,14 +12957,14 @@
       <c r="B441" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C441" s="36"/>
+      <c r="C441" s="39"/>
       <c r="E441" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F441" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G441" s="36"/>
+      <c r="G441" s="39"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="17"/>
@@ -12020,19 +12999,19 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A446" s="37" t="str">
+      <c r="A446" s="40" t="str">
         <f t="shared" ref="A446" si="81">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B446" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B446" s="40"/>
       <c r="C446" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E446" s="37" t="str">
+      <c r="E446" s="40" t="str">
         <f t="shared" ref="E446" si="82">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F446" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F446" s="40"/>
       <c r="G446" s="7" t="s">
         <v>6</v>
       </c>
@@ -12070,30 +13049,30 @@
       <c r="G448" s="6"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A449" s="38" t="s">
+      <c r="A449" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B449" s="39"/>
-      <c r="C449" s="40"/>
-      <c r="E449" s="38" t="s">
+      <c r="B449" s="36"/>
+      <c r="C449" s="37"/>
+      <c r="E449" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F449" s="39"/>
-      <c r="G449" s="40"/>
+      <c r="F449" s="36"/>
+      <c r="G449" s="37"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B450" s="9"/>
-      <c r="C450" s="35" t="s">
+      <c r="C450" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E450" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F450" s="9"/>
-      <c r="G450" s="35" t="s">
+      <c r="G450" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12104,14 +13083,14 @@
       <c r="B451" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C451" s="36"/>
+      <c r="C451" s="39"/>
       <c r="E451" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F451" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G451" s="36"/>
+      <c r="G451" s="39"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="17"/>
@@ -12147,19 +13126,19 @@
       </c>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A461" s="37" t="str">
+      <c r="A461" s="40" t="str">
         <f t="shared" ref="A461" si="83">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B461" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B461" s="40"/>
       <c r="C461" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E461" s="37" t="str">
+      <c r="E461" s="40" t="str">
         <f t="shared" ref="E461" si="84">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F461" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F461" s="40"/>
       <c r="G461" s="7" t="s">
         <v>6</v>
       </c>
@@ -12198,30 +13177,30 @@
       <c r="G463" s="6"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A464" s="38" t="s">
+      <c r="A464" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B464" s="39"/>
-      <c r="C464" s="40"/>
-      <c r="E464" s="38" t="s">
+      <c r="B464" s="36"/>
+      <c r="C464" s="37"/>
+      <c r="E464" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F464" s="39"/>
-      <c r="G464" s="40"/>
+      <c r="F464" s="36"/>
+      <c r="G464" s="37"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B465" s="9"/>
-      <c r="C465" s="35" t="s">
+      <c r="C465" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E465" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F465" s="9"/>
-      <c r="G465" s="35" t="s">
+      <c r="G465" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12232,14 +13211,14 @@
       <c r="B466" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C466" s="36"/>
+      <c r="C466" s="39"/>
       <c r="E466" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F466" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G466" s="36"/>
+      <c r="G466" s="39"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="17"/>
@@ -12274,19 +13253,19 @@
       </c>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="47" t="str">
+      <c r="A471" s="43" t="str">
         <f>$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B471" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B471" s="44"/>
       <c r="C471" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E471" s="37" t="str">
+      <c r="E471" s="40" t="str">
         <f t="shared" ref="E471" si="85">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F471" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F471" s="40"/>
       <c r="G471" s="7" t="s">
         <v>6</v>
       </c>
@@ -12324,30 +13303,30 @@
       <c r="G473" s="6"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A474" s="38" t="s">
+      <c r="A474" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B474" s="39"/>
-      <c r="C474" s="40"/>
-      <c r="E474" s="38" t="s">
+      <c r="B474" s="36"/>
+      <c r="C474" s="37"/>
+      <c r="E474" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F474" s="39"/>
-      <c r="G474" s="40"/>
+      <c r="F474" s="36"/>
+      <c r="G474" s="37"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B475" s="9"/>
-      <c r="C475" s="35" t="s">
+      <c r="C475" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E475" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F475" s="9"/>
-      <c r="G475" s="35" t="s">
+      <c r="G475" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12358,14 +13337,14 @@
       <c r="B476" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C476" s="36"/>
+      <c r="C476" s="39"/>
       <c r="E476" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F476" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G476" s="36"/>
+      <c r="G476" s="39"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="17"/>
@@ -12400,19 +13379,19 @@
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A481" s="37" t="str">
+      <c r="A481" s="40" t="str">
         <f t="shared" ref="A481" si="86">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B481" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B481" s="40"/>
       <c r="C481" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E481" s="37" t="str">
+      <c r="E481" s="40" t="str">
         <f t="shared" ref="E481" si="87">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F481" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F481" s="40"/>
       <c r="G481" s="7" t="s">
         <v>6</v>
       </c>
@@ -12450,30 +13429,30 @@
       <c r="G483" s="6"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A484" s="38" t="s">
+      <c r="A484" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B484" s="39"/>
-      <c r="C484" s="40"/>
-      <c r="E484" s="38" t="s">
+      <c r="B484" s="36"/>
+      <c r="C484" s="37"/>
+      <c r="E484" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F484" s="39"/>
-      <c r="G484" s="40"/>
+      <c r="F484" s="36"/>
+      <c r="G484" s="37"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B485" s="9"/>
-      <c r="C485" s="35" t="s">
+      <c r="C485" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E485" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F485" s="9"/>
-      <c r="G485" s="35" t="s">
+      <c r="G485" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12484,14 +13463,14 @@
       <c r="B486" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C486" s="36"/>
+      <c r="C486" s="39"/>
       <c r="E486" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F486" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G486" s="36"/>
+      <c r="G486" s="39"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="17"/>
@@ -12526,19 +13505,19 @@
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A491" s="37" t="str">
+      <c r="A491" s="40" t="str">
         <f t="shared" ref="A491" si="88">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B491" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B491" s="40"/>
       <c r="C491" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E491" s="37" t="str">
+      <c r="E491" s="40" t="str">
         <f t="shared" ref="E491" si="89">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F491" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F491" s="40"/>
       <c r="G491" s="7" t="s">
         <v>6</v>
       </c>
@@ -12576,30 +13555,30 @@
       <c r="G493" s="6"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A494" s="38" t="s">
+      <c r="A494" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B494" s="39"/>
-      <c r="C494" s="40"/>
-      <c r="E494" s="38" t="s">
+      <c r="B494" s="36"/>
+      <c r="C494" s="37"/>
+      <c r="E494" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F494" s="39"/>
-      <c r="G494" s="40"/>
+      <c r="F494" s="36"/>
+      <c r="G494" s="37"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B495" s="9"/>
-      <c r="C495" s="35" t="s">
+      <c r="C495" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E495" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F495" s="9"/>
-      <c r="G495" s="35" t="s">
+      <c r="G495" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12610,14 +13589,14 @@
       <c r="B496" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C496" s="36"/>
+      <c r="C496" s="39"/>
       <c r="E496" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F496" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G496" s="36"/>
+      <c r="G496" s="39"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="17"/>
@@ -12652,19 +13631,19 @@
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A501" s="37" t="str">
+      <c r="A501" s="40" t="str">
         <f t="shared" ref="A501" si="90">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B501" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B501" s="40"/>
       <c r="C501" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E501" s="37" t="str">
+      <c r="E501" s="40" t="str">
         <f t="shared" ref="E501" si="91">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F501" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F501" s="40"/>
       <c r="G501" s="7" t="s">
         <v>6</v>
       </c>
@@ -12702,30 +13681,30 @@
       <c r="G503" s="6"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A504" s="38" t="s">
+      <c r="A504" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B504" s="39"/>
-      <c r="C504" s="40"/>
-      <c r="E504" s="38" t="s">
+      <c r="B504" s="36"/>
+      <c r="C504" s="37"/>
+      <c r="E504" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F504" s="39"/>
-      <c r="G504" s="40"/>
+      <c r="F504" s="36"/>
+      <c r="G504" s="37"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B505" s="9"/>
-      <c r="C505" s="35" t="s">
+      <c r="C505" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E505" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F505" s="9"/>
-      <c r="G505" s="35" t="s">
+      <c r="G505" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12736,14 +13715,14 @@
       <c r="B506" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C506" s="36"/>
+      <c r="C506" s="39"/>
       <c r="E506" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F506" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G506" s="36"/>
+      <c r="G506" s="39"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A507" s="17"/>
@@ -12778,19 +13757,19 @@
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A511" s="37" t="str">
+      <c r="A511" s="40" t="str">
         <f t="shared" ref="A511" si="92">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B511" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B511" s="40"/>
       <c r="C511" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E511" s="37" t="str">
+      <c r="E511" s="40" t="str">
         <f t="shared" ref="E511" si="93">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F511" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F511" s="40"/>
       <c r="G511" s="7" t="s">
         <v>6</v>
       </c>
@@ -12828,30 +13807,30 @@
       <c r="G513" s="6"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A514" s="38" t="s">
+      <c r="A514" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B514" s="39"/>
-      <c r="C514" s="40"/>
-      <c r="E514" s="38" t="s">
+      <c r="B514" s="36"/>
+      <c r="C514" s="37"/>
+      <c r="E514" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F514" s="39"/>
-      <c r="G514" s="40"/>
+      <c r="F514" s="36"/>
+      <c r="G514" s="37"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B515" s="9"/>
-      <c r="C515" s="35" t="s">
+      <c r="C515" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E515" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F515" s="9"/>
-      <c r="G515" s="35" t="s">
+      <c r="G515" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12862,14 +13841,14 @@
       <c r="B516" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C516" s="36"/>
+      <c r="C516" s="39"/>
       <c r="E516" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F516" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G516" s="36"/>
+      <c r="G516" s="39"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="17"/>
@@ -12905,19 +13884,19 @@
       </c>
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A526" s="37" t="str">
+      <c r="A526" s="40" t="str">
         <f t="shared" ref="A526" si="94">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B526" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B526" s="40"/>
       <c r="C526" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E526" s="37" t="str">
+      <c r="E526" s="40" t="str">
         <f t="shared" ref="E526" si="95">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F526" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F526" s="40"/>
       <c r="G526" s="7" t="s">
         <v>6</v>
       </c>
@@ -12956,30 +13935,30 @@
       <c r="G528" s="6"/>
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A529" s="38" t="s">
+      <c r="A529" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B529" s="39"/>
-      <c r="C529" s="40"/>
-      <c r="E529" s="38" t="s">
+      <c r="B529" s="36"/>
+      <c r="C529" s="37"/>
+      <c r="E529" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F529" s="39"/>
-      <c r="G529" s="40"/>
+      <c r="F529" s="36"/>
+      <c r="G529" s="37"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B530" s="9"/>
-      <c r="C530" s="35" t="s">
+      <c r="C530" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E530" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F530" s="9"/>
-      <c r="G530" s="35" t="s">
+      <c r="G530" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12990,14 +13969,14 @@
       <c r="B531" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C531" s="36"/>
+      <c r="C531" s="39"/>
       <c r="E531" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F531" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G531" s="36"/>
+      <c r="G531" s="39"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="17"/>
@@ -13032,19 +14011,19 @@
       </c>
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A536" s="47" t="str">
+      <c r="A536" s="43" t="str">
         <f t="shared" ref="A536" si="96">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B536" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B536" s="44"/>
       <c r="C536" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E536" s="37" t="str">
+      <c r="E536" s="40" t="str">
         <f t="shared" ref="E536" si="97">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F536" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F536" s="40"/>
       <c r="G536" s="7" t="s">
         <v>6</v>
       </c>
@@ -13082,30 +14061,30 @@
       <c r="G538" s="6"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A539" s="38" t="s">
+      <c r="A539" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B539" s="39"/>
-      <c r="C539" s="40"/>
-      <c r="E539" s="38" t="s">
+      <c r="B539" s="36"/>
+      <c r="C539" s="37"/>
+      <c r="E539" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F539" s="39"/>
-      <c r="G539" s="40"/>
+      <c r="F539" s="36"/>
+      <c r="G539" s="37"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B540" s="9"/>
-      <c r="C540" s="35" t="s">
+      <c r="C540" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E540" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F540" s="9"/>
-      <c r="G540" s="35" t="s">
+      <c r="G540" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13116,14 +14095,14 @@
       <c r="B541" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C541" s="36"/>
+      <c r="C541" s="39"/>
       <c r="E541" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F541" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G541" s="36"/>
+      <c r="G541" s="39"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="17"/>
@@ -13158,19 +14137,19 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A546" s="37" t="str">
+      <c r="A546" s="40" t="str">
         <f t="shared" ref="A546" si="98">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B546" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B546" s="40"/>
       <c r="C546" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E546" s="37" t="str">
+      <c r="E546" s="40" t="str">
         <f t="shared" ref="E546" si="99">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F546" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F546" s="40"/>
       <c r="G546" s="7" t="s">
         <v>6</v>
       </c>
@@ -13208,30 +14187,30 @@
       <c r="G548" s="6"/>
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A549" s="38" t="s">
+      <c r="A549" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B549" s="39"/>
-      <c r="C549" s="40"/>
-      <c r="E549" s="38" t="s">
+      <c r="B549" s="36"/>
+      <c r="C549" s="37"/>
+      <c r="E549" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F549" s="39"/>
-      <c r="G549" s="40"/>
+      <c r="F549" s="36"/>
+      <c r="G549" s="37"/>
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B550" s="9"/>
-      <c r="C550" s="35" t="s">
+      <c r="C550" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E550" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F550" s="9"/>
-      <c r="G550" s="35" t="s">
+      <c r="G550" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13242,14 +14221,14 @@
       <c r="B551" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C551" s="36"/>
+      <c r="C551" s="39"/>
       <c r="E551" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F551" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G551" s="36"/>
+      <c r="G551" s="39"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="17"/>
@@ -13284,19 +14263,19 @@
       </c>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A556" s="37" t="str">
+      <c r="A556" s="40" t="str">
         <f t="shared" ref="A556" si="100">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B556" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B556" s="40"/>
       <c r="C556" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E556" s="37" t="str">
+      <c r="E556" s="40" t="str">
         <f t="shared" ref="E556" si="101">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F556" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F556" s="40"/>
       <c r="G556" s="7" t="s">
         <v>6</v>
       </c>
@@ -13334,30 +14313,30 @@
       <c r="G558" s="6"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A559" s="38" t="s">
+      <c r="A559" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B559" s="39"/>
-      <c r="C559" s="40"/>
-      <c r="E559" s="38" t="s">
+      <c r="B559" s="36"/>
+      <c r="C559" s="37"/>
+      <c r="E559" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F559" s="39"/>
-      <c r="G559" s="40"/>
+      <c r="F559" s="36"/>
+      <c r="G559" s="37"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B560" s="9"/>
-      <c r="C560" s="35" t="s">
+      <c r="C560" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E560" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F560" s="9"/>
-      <c r="G560" s="35" t="s">
+      <c r="G560" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13368,14 +14347,14 @@
       <c r="B561" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C561" s="36"/>
+      <c r="C561" s="39"/>
       <c r="E561" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F561" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G561" s="36"/>
+      <c r="G561" s="39"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="17"/>
@@ -13410,19 +14389,19 @@
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A566" s="37" t="str">
+      <c r="A566" s="40" t="str">
         <f t="shared" ref="A566" si="102">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B566" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B566" s="40"/>
       <c r="C566" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E566" s="37" t="str">
+      <c r="E566" s="40" t="str">
         <f t="shared" ref="E566" si="103">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F566" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F566" s="40"/>
       <c r="G566" s="7" t="s">
         <v>6</v>
       </c>
@@ -13460,30 +14439,30 @@
       <c r="G568" s="6"/>
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A569" s="38" t="s">
+      <c r="A569" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B569" s="39"/>
-      <c r="C569" s="40"/>
-      <c r="E569" s="38" t="s">
+      <c r="B569" s="36"/>
+      <c r="C569" s="37"/>
+      <c r="E569" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F569" s="39"/>
-      <c r="G569" s="40"/>
+      <c r="F569" s="36"/>
+      <c r="G569" s="37"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B570" s="9"/>
-      <c r="C570" s="35" t="s">
+      <c r="C570" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E570" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F570" s="9"/>
-      <c r="G570" s="35" t="s">
+      <c r="G570" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13494,14 +14473,14 @@
       <c r="B571" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C571" s="36"/>
+      <c r="C571" s="39"/>
       <c r="E571" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F571" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G571" s="36"/>
+      <c r="G571" s="39"/>
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A572" s="17"/>
@@ -13536,19 +14515,19 @@
       </c>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A576" s="37" t="str">
+      <c r="A576" s="40" t="str">
         <f t="shared" ref="A576" si="104">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B576" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B576" s="40"/>
       <c r="C576" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E576" s="37" t="str">
+      <c r="E576" s="40" t="str">
         <f t="shared" ref="E576" si="105">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F576" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F576" s="40"/>
       <c r="G576" s="7" t="s">
         <v>6</v>
       </c>
@@ -13586,30 +14565,30 @@
       <c r="G578" s="6"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A579" s="38" t="s">
+      <c r="A579" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B579" s="39"/>
-      <c r="C579" s="40"/>
-      <c r="E579" s="38" t="s">
+      <c r="B579" s="36"/>
+      <c r="C579" s="37"/>
+      <c r="E579" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F579" s="39"/>
-      <c r="G579" s="40"/>
+      <c r="F579" s="36"/>
+      <c r="G579" s="37"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B580" s="9"/>
-      <c r="C580" s="35" t="s">
+      <c r="C580" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E580" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F580" s="9"/>
-      <c r="G580" s="35" t="s">
+      <c r="G580" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13620,14 +14599,14 @@
       <c r="B581" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C581" s="36"/>
+      <c r="C581" s="39"/>
       <c r="E581" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F581" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G581" s="36"/>
+      <c r="G581" s="39"/>
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="17"/>
@@ -13663,19 +14642,19 @@
       </c>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A591" s="37" t="str">
+      <c r="A591" s="40" t="str">
         <f t="shared" ref="A591" si="106">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B591" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B591" s="40"/>
       <c r="C591" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E591" s="37" t="str">
+      <c r="E591" s="40" t="str">
         <f t="shared" ref="E591" si="107">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F591" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F591" s="40"/>
       <c r="G591" s="7" t="s">
         <v>6</v>
       </c>
@@ -13714,30 +14693,30 @@
       <c r="G593" s="6"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A594" s="38" t="s">
+      <c r="A594" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B594" s="39"/>
-      <c r="C594" s="40"/>
-      <c r="E594" s="38" t="s">
+      <c r="B594" s="36"/>
+      <c r="C594" s="37"/>
+      <c r="E594" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F594" s="39"/>
-      <c r="G594" s="40"/>
+      <c r="F594" s="36"/>
+      <c r="G594" s="37"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B595" s="9"/>
-      <c r="C595" s="35" t="s">
+      <c r="C595" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E595" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F595" s="9"/>
-      <c r="G595" s="35" t="s">
+      <c r="G595" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13748,14 +14727,14 @@
       <c r="B596" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C596" s="36"/>
+      <c r="C596" s="39"/>
       <c r="E596" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F596" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G596" s="36"/>
+      <c r="G596" s="39"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="17"/>
@@ -13790,19 +14769,19 @@
       </c>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A601" s="47" t="str">
+      <c r="A601" s="43" t="str">
         <f t="shared" ref="A601" si="108">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B601" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B601" s="44"/>
       <c r="C601" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E601" s="37" t="str">
+      <c r="E601" s="40" t="str">
         <f t="shared" ref="E601" si="109">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F601" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F601" s="40"/>
       <c r="G601" s="7" t="s">
         <v>6</v>
       </c>
@@ -13840,30 +14819,30 @@
       <c r="G603" s="6"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A604" s="38" t="s">
+      <c r="A604" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B604" s="39"/>
-      <c r="C604" s="40"/>
-      <c r="E604" s="38" t="s">
+      <c r="B604" s="36"/>
+      <c r="C604" s="37"/>
+      <c r="E604" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F604" s="39"/>
-      <c r="G604" s="40"/>
+      <c r="F604" s="36"/>
+      <c r="G604" s="37"/>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B605" s="9"/>
-      <c r="C605" s="35" t="s">
+      <c r="C605" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E605" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F605" s="9"/>
-      <c r="G605" s="35" t="s">
+      <c r="G605" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13874,14 +14853,14 @@
       <c r="B606" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C606" s="36"/>
+      <c r="C606" s="39"/>
       <c r="E606" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F606" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G606" s="36"/>
+      <c r="G606" s="39"/>
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="17"/>
@@ -13916,19 +14895,19 @@
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A611" s="37" t="str">
+      <c r="A611" s="40" t="str">
         <f t="shared" ref="A611" si="110">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B611" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B611" s="40"/>
       <c r="C611" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E611" s="37" t="str">
+      <c r="E611" s="40" t="str">
         <f t="shared" ref="E611" si="111">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F611" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F611" s="40"/>
       <c r="G611" s="7" t="s">
         <v>6</v>
       </c>
@@ -13966,30 +14945,30 @@
       <c r="G613" s="6"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A614" s="38" t="s">
+      <c r="A614" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B614" s="39"/>
-      <c r="C614" s="40"/>
-      <c r="E614" s="38" t="s">
+      <c r="B614" s="36"/>
+      <c r="C614" s="37"/>
+      <c r="E614" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F614" s="39"/>
-      <c r="G614" s="40"/>
+      <c r="F614" s="36"/>
+      <c r="G614" s="37"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A615" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B615" s="9"/>
-      <c r="C615" s="35" t="s">
+      <c r="C615" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E615" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F615" s="9"/>
-      <c r="G615" s="35" t="s">
+      <c r="G615" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14000,14 +14979,14 @@
       <c r="B616" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C616" s="36"/>
+      <c r="C616" s="39"/>
       <c r="E616" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F616" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G616" s="36"/>
+      <c r="G616" s="39"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A617" s="17"/>
@@ -14042,19 +15021,19 @@
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A621" s="37" t="str">
+      <c r="A621" s="40" t="str">
         <f t="shared" ref="A621" si="112">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B621" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B621" s="40"/>
       <c r="C621" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E621" s="37" t="str">
+      <c r="E621" s="40" t="str">
         <f t="shared" ref="E621" si="113">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F621" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F621" s="40"/>
       <c r="G621" s="7" t="s">
         <v>6</v>
       </c>
@@ -14092,30 +15071,30 @@
       <c r="G623" s="6"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A624" s="38" t="s">
+      <c r="A624" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B624" s="39"/>
-      <c r="C624" s="40"/>
-      <c r="E624" s="38" t="s">
+      <c r="B624" s="36"/>
+      <c r="C624" s="37"/>
+      <c r="E624" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F624" s="39"/>
-      <c r="G624" s="40"/>
+      <c r="F624" s="36"/>
+      <c r="G624" s="37"/>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A625" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B625" s="9"/>
-      <c r="C625" s="35" t="s">
+      <c r="C625" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E625" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F625" s="9"/>
-      <c r="G625" s="35" t="s">
+      <c r="G625" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14126,14 +15105,14 @@
       <c r="B626" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C626" s="36"/>
+      <c r="C626" s="39"/>
       <c r="E626" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F626" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G626" s="36"/>
+      <c r="G626" s="39"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="17"/>
@@ -14168,19 +15147,19 @@
       </c>
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A631" s="37" t="str">
+      <c r="A631" s="40" t="str">
         <f t="shared" ref="A631" si="114">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B631" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B631" s="40"/>
       <c r="C631" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E631" s="37" t="str">
+      <c r="E631" s="40" t="str">
         <f t="shared" ref="E631" si="115">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F631" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F631" s="40"/>
       <c r="G631" s="7" t="s">
         <v>6</v>
       </c>
@@ -14218,30 +15197,30 @@
       <c r="G633" s="6"/>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A634" s="38" t="s">
+      <c r="A634" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B634" s="39"/>
-      <c r="C634" s="40"/>
-      <c r="E634" s="38" t="s">
+      <c r="B634" s="36"/>
+      <c r="C634" s="37"/>
+      <c r="E634" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F634" s="39"/>
-      <c r="G634" s="40"/>
+      <c r="F634" s="36"/>
+      <c r="G634" s="37"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A635" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B635" s="9"/>
-      <c r="C635" s="35" t="s">
+      <c r="C635" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E635" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F635" s="9"/>
-      <c r="G635" s="35" t="s">
+      <c r="G635" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14252,14 +15231,14 @@
       <c r="B636" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C636" s="36"/>
+      <c r="C636" s="39"/>
       <c r="E636" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F636" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G636" s="36"/>
+      <c r="G636" s="39"/>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" s="17"/>
@@ -14294,19 +15273,19 @@
       </c>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A641" s="37" t="str">
+      <c r="A641" s="40" t="str">
         <f t="shared" ref="A641" si="116">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B641" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B641" s="40"/>
       <c r="C641" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E641" s="37" t="str">
+      <c r="E641" s="40" t="str">
         <f t="shared" ref="E641" si="117">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F641" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F641" s="40"/>
       <c r="G641" s="7" t="s">
         <v>6</v>
       </c>
@@ -14344,30 +15323,30 @@
       <c r="G643" s="6"/>
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A644" s="38" t="s">
+      <c r="A644" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B644" s="39"/>
-      <c r="C644" s="40"/>
-      <c r="E644" s="38" t="s">
+      <c r="B644" s="36"/>
+      <c r="C644" s="37"/>
+      <c r="E644" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F644" s="39"/>
-      <c r="G644" s="40"/>
+      <c r="F644" s="36"/>
+      <c r="G644" s="37"/>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B645" s="9"/>
-      <c r="C645" s="35" t="s">
+      <c r="C645" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E645" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F645" s="9"/>
-      <c r="G645" s="35" t="s">
+      <c r="G645" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14378,14 +15357,14 @@
       <c r="B646" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C646" s="36"/>
+      <c r="C646" s="39"/>
       <c r="E646" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F646" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G646" s="36"/>
+      <c r="G646" s="39"/>
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" s="17"/>
@@ -14421,19 +15400,19 @@
       </c>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A656" s="37" t="str">
+      <c r="A656" s="40" t="str">
         <f t="shared" ref="A656" si="118">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B656" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B656" s="40"/>
       <c r="C656" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E656" s="37" t="str">
+      <c r="E656" s="40" t="str">
         <f t="shared" ref="E656" si="119">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F656" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F656" s="40"/>
       <c r="G656" s="7" t="s">
         <v>6</v>
       </c>
@@ -14472,30 +15451,30 @@
       <c r="G658" s="6"/>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A659" s="38" t="s">
+      <c r="A659" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B659" s="39"/>
-      <c r="C659" s="40"/>
-      <c r="E659" s="38" t="s">
+      <c r="B659" s="36"/>
+      <c r="C659" s="37"/>
+      <c r="E659" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F659" s="39"/>
-      <c r="G659" s="40"/>
+      <c r="F659" s="36"/>
+      <c r="G659" s="37"/>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B660" s="9"/>
-      <c r="C660" s="35" t="s">
+      <c r="C660" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E660" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F660" s="9"/>
-      <c r="G660" s="35" t="s">
+      <c r="G660" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14506,14 +15485,14 @@
       <c r="B661" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C661" s="36"/>
+      <c r="C661" s="39"/>
       <c r="E661" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F661" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G661" s="36"/>
+      <c r="G661" s="39"/>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" s="17"/>
@@ -14548,19 +15527,19 @@
       </c>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A666" s="47" t="str">
+      <c r="A666" s="43" t="str">
         <f t="shared" ref="A666" si="120">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B666" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B666" s="44"/>
       <c r="C666" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E666" s="37" t="str">
+      <c r="E666" s="40" t="str">
         <f t="shared" ref="E666" si="121">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F666" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F666" s="40"/>
       <c r="G666" s="7" t="s">
         <v>6</v>
       </c>
@@ -14598,30 +15577,30 @@
       <c r="G668" s="6"/>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A669" s="38" t="s">
+      <c r="A669" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B669" s="39"/>
-      <c r="C669" s="40"/>
-      <c r="E669" s="38" t="s">
+      <c r="B669" s="36"/>
+      <c r="C669" s="37"/>
+      <c r="E669" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F669" s="39"/>
-      <c r="G669" s="40"/>
+      <c r="F669" s="36"/>
+      <c r="G669" s="37"/>
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B670" s="9"/>
-      <c r="C670" s="35" t="s">
+      <c r="C670" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E670" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F670" s="9"/>
-      <c r="G670" s="35" t="s">
+      <c r="G670" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14632,14 +15611,14 @@
       <c r="B671" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C671" s="36"/>
+      <c r="C671" s="39"/>
       <c r="E671" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F671" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G671" s="36"/>
+      <c r="G671" s="39"/>
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" s="17"/>
@@ -14674,19 +15653,19 @@
       </c>
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A676" s="37" t="str">
+      <c r="A676" s="40" t="str">
         <f t="shared" ref="A676" si="122">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B676" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B676" s="40"/>
       <c r="C676" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E676" s="37" t="str">
+      <c r="E676" s="40" t="str">
         <f t="shared" ref="E676" si="123">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F676" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F676" s="40"/>
       <c r="G676" s="7" t="s">
         <v>6</v>
       </c>
@@ -14724,30 +15703,30 @@
       <c r="G678" s="6"/>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A679" s="38" t="s">
+      <c r="A679" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B679" s="39"/>
-      <c r="C679" s="40"/>
-      <c r="E679" s="38" t="s">
+      <c r="B679" s="36"/>
+      <c r="C679" s="37"/>
+      <c r="E679" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F679" s="39"/>
-      <c r="G679" s="40"/>
+      <c r="F679" s="36"/>
+      <c r="G679" s="37"/>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A680" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B680" s="9"/>
-      <c r="C680" s="35" t="s">
+      <c r="C680" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E680" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F680" s="9"/>
-      <c r="G680" s="35" t="s">
+      <c r="G680" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14758,14 +15737,14 @@
       <c r="B681" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C681" s="36"/>
+      <c r="C681" s="39"/>
       <c r="E681" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F681" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G681" s="36"/>
+      <c r="G681" s="39"/>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A682" s="17"/>
@@ -14800,19 +15779,19 @@
       </c>
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A686" s="37" t="str">
+      <c r="A686" s="40" t="str">
         <f t="shared" ref="A686" si="124">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B686" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B686" s="40"/>
       <c r="C686" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E686" s="37" t="str">
+      <c r="E686" s="40" t="str">
         <f t="shared" ref="E686" si="125">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F686" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F686" s="40"/>
       <c r="G686" s="7" t="s">
         <v>6</v>
       </c>
@@ -14850,30 +15829,30 @@
       <c r="G688" s="6"/>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A689" s="38" t="s">
+      <c r="A689" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B689" s="39"/>
-      <c r="C689" s="40"/>
-      <c r="E689" s="38" t="s">
+      <c r="B689" s="36"/>
+      <c r="C689" s="37"/>
+      <c r="E689" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F689" s="39"/>
-      <c r="G689" s="40"/>
+      <c r="F689" s="36"/>
+      <c r="G689" s="37"/>
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A690" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B690" s="9"/>
-      <c r="C690" s="35" t="s">
+      <c r="C690" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E690" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F690" s="9"/>
-      <c r="G690" s="35" t="s">
+      <c r="G690" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14884,14 +15863,14 @@
       <c r="B691" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C691" s="36"/>
+      <c r="C691" s="39"/>
       <c r="E691" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F691" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G691" s="36"/>
+      <c r="G691" s="39"/>
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A692" s="17"/>
@@ -14926,19 +15905,19 @@
       </c>
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A696" s="37" t="str">
+      <c r="A696" s="40" t="str">
         <f t="shared" ref="A696" si="126">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B696" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B696" s="40"/>
       <c r="C696" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E696" s="37" t="str">
+      <c r="E696" s="40" t="str">
         <f t="shared" ref="E696" si="127">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F696" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F696" s="40"/>
       <c r="G696" s="7" t="s">
         <v>6</v>
       </c>
@@ -14976,30 +15955,30 @@
       <c r="G698" s="6"/>
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A699" s="38" t="s">
+      <c r="A699" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B699" s="39"/>
-      <c r="C699" s="40"/>
-      <c r="E699" s="38" t="s">
+      <c r="B699" s="36"/>
+      <c r="C699" s="37"/>
+      <c r="E699" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F699" s="39"/>
-      <c r="G699" s="40"/>
+      <c r="F699" s="36"/>
+      <c r="G699" s="37"/>
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A700" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B700" s="9"/>
-      <c r="C700" s="35" t="s">
+      <c r="C700" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E700" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F700" s="9"/>
-      <c r="G700" s="35" t="s">
+      <c r="G700" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15010,14 +15989,14 @@
       <c r="B701" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C701" s="36"/>
+      <c r="C701" s="39"/>
       <c r="E701" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F701" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G701" s="36"/>
+      <c r="G701" s="39"/>
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A702" s="17"/>
@@ -15052,19 +16031,19 @@
       </c>
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A706" s="37" t="str">
+      <c r="A706" s="40" t="str">
         <f t="shared" ref="A706" si="128">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B706" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B706" s="40"/>
       <c r="C706" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E706" s="37" t="str">
+      <c r="E706" s="40" t="str">
         <f t="shared" ref="E706" si="129">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F706" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F706" s="40"/>
       <c r="G706" s="7" t="s">
         <v>6</v>
       </c>
@@ -15102,30 +16081,30 @@
       <c r="G708" s="6"/>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A709" s="38" t="s">
+      <c r="A709" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B709" s="39"/>
-      <c r="C709" s="40"/>
-      <c r="E709" s="38" t="s">
+      <c r="B709" s="36"/>
+      <c r="C709" s="37"/>
+      <c r="E709" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F709" s="39"/>
-      <c r="G709" s="40"/>
+      <c r="F709" s="36"/>
+      <c r="G709" s="37"/>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A710" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B710" s="9"/>
-      <c r="C710" s="35" t="s">
+      <c r="C710" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E710" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F710" s="9"/>
-      <c r="G710" s="35" t="s">
+      <c r="G710" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15136,14 +16115,14 @@
       <c r="B711" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C711" s="36"/>
+      <c r="C711" s="39"/>
       <c r="E711" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F711" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G711" s="36"/>
+      <c r="G711" s="39"/>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A712" s="17"/>
@@ -15179,19 +16158,19 @@
       </c>
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A721" s="37" t="str">
+      <c r="A721" s="40" t="str">
         <f t="shared" ref="A721" si="130">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B721" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B721" s="40"/>
       <c r="C721" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E721" s="37" t="str">
+      <c r="E721" s="40" t="str">
         <f t="shared" ref="E721" si="131">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F721" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F721" s="40"/>
       <c r="G721" s="7" t="s">
         <v>6</v>
       </c>
@@ -15230,30 +16209,30 @@
       <c r="G723" s="6"/>
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A724" s="38" t="s">
+      <c r="A724" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B724" s="39"/>
-      <c r="C724" s="40"/>
-      <c r="E724" s="38" t="s">
+      <c r="B724" s="36"/>
+      <c r="C724" s="37"/>
+      <c r="E724" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F724" s="39"/>
-      <c r="G724" s="40"/>
+      <c r="F724" s="36"/>
+      <c r="G724" s="37"/>
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A725" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B725" s="9"/>
-      <c r="C725" s="35" t="s">
+      <c r="C725" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E725" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F725" s="9"/>
-      <c r="G725" s="35" t="s">
+      <c r="G725" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15264,14 +16243,14 @@
       <c r="B726" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C726" s="36"/>
+      <c r="C726" s="39"/>
       <c r="E726" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F726" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G726" s="36"/>
+      <c r="G726" s="39"/>
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A727" s="17"/>
@@ -15306,19 +16285,19 @@
       </c>
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A731" s="47" t="str">
+      <c r="A731" s="43" t="str">
         <f t="shared" ref="A731" si="132">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B731" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B731" s="44"/>
       <c r="C731" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E731" s="37" t="str">
+      <c r="E731" s="40" t="str">
         <f t="shared" ref="E731" si="133">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F731" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F731" s="40"/>
       <c r="G731" s="7" t="s">
         <v>6</v>
       </c>
@@ -15356,30 +16335,30 @@
       <c r="G733" s="6"/>
     </row>
     <row r="734" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A734" s="38" t="s">
+      <c r="A734" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B734" s="39"/>
-      <c r="C734" s="40"/>
-      <c r="E734" s="38" t="s">
+      <c r="B734" s="36"/>
+      <c r="C734" s="37"/>
+      <c r="E734" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F734" s="39"/>
-      <c r="G734" s="40"/>
+      <c r="F734" s="36"/>
+      <c r="G734" s="37"/>
     </row>
     <row r="735" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A735" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B735" s="9"/>
-      <c r="C735" s="35" t="s">
+      <c r="C735" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E735" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F735" s="9"/>
-      <c r="G735" s="35" t="s">
+      <c r="G735" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15390,14 +16369,14 @@
       <c r="B736" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C736" s="36"/>
+      <c r="C736" s="39"/>
       <c r="E736" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F736" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G736" s="36"/>
+      <c r="G736" s="39"/>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A737" s="17"/>
@@ -15432,19 +16411,19 @@
       </c>
     </row>
     <row r="741" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A741" s="37" t="str">
+      <c r="A741" s="40" t="str">
         <f t="shared" ref="A741" si="134">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B741" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B741" s="40"/>
       <c r="C741" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E741" s="37" t="str">
+      <c r="E741" s="40" t="str">
         <f t="shared" ref="E741" si="135">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F741" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F741" s="40"/>
       <c r="G741" s="7" t="s">
         <v>6</v>
       </c>
@@ -15482,30 +16461,30 @@
       <c r="G743" s="6"/>
     </row>
     <row r="744" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A744" s="38" t="s">
+      <c r="A744" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B744" s="39"/>
-      <c r="C744" s="40"/>
-      <c r="E744" s="38" t="s">
+      <c r="B744" s="36"/>
+      <c r="C744" s="37"/>
+      <c r="E744" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F744" s="39"/>
-      <c r="G744" s="40"/>
+      <c r="F744" s="36"/>
+      <c r="G744" s="37"/>
     </row>
     <row r="745" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A745" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B745" s="9"/>
-      <c r="C745" s="35" t="s">
+      <c r="C745" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E745" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F745" s="9"/>
-      <c r="G745" s="35" t="s">
+      <c r="G745" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15516,14 +16495,14 @@
       <c r="B746" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C746" s="36"/>
+      <c r="C746" s="39"/>
       <c r="E746" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F746" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G746" s="36"/>
+      <c r="G746" s="39"/>
     </row>
     <row r="747" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A747" s="17"/>
@@ -15558,19 +16537,19 @@
       </c>
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A751" s="37" t="str">
+      <c r="A751" s="40" t="str">
         <f t="shared" ref="A751" si="136">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B751" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B751" s="40"/>
       <c r="C751" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E751" s="37" t="str">
+      <c r="E751" s="40" t="str">
         <f t="shared" ref="E751" si="137">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F751" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F751" s="40"/>
       <c r="G751" s="7" t="s">
         <v>6</v>
       </c>
@@ -15608,30 +16587,30 @@
       <c r="G753" s="6"/>
     </row>
     <row r="754" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A754" s="38" t="s">
+      <c r="A754" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B754" s="39"/>
-      <c r="C754" s="40"/>
-      <c r="E754" s="38" t="s">
+      <c r="B754" s="36"/>
+      <c r="C754" s="37"/>
+      <c r="E754" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F754" s="39"/>
-      <c r="G754" s="40"/>
+      <c r="F754" s="36"/>
+      <c r="G754" s="37"/>
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A755" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B755" s="9"/>
-      <c r="C755" s="35" t="s">
+      <c r="C755" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E755" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F755" s="9"/>
-      <c r="G755" s="35" t="s">
+      <c r="G755" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15642,14 +16621,14 @@
       <c r="B756" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C756" s="36"/>
+      <c r="C756" s="39"/>
       <c r="E756" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F756" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G756" s="36"/>
+      <c r="G756" s="39"/>
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A757" s="17"/>
@@ -15684,19 +16663,19 @@
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A761" s="37" t="str">
+      <c r="A761" s="40" t="str">
         <f>$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B761" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B761" s="40"/>
       <c r="C761" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E761" s="37" t="str">
+      <c r="E761" s="40" t="str">
         <f t="shared" ref="E761" si="138">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F761" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F761" s="40"/>
       <c r="G761" s="7" t="s">
         <v>6</v>
       </c>
@@ -15734,30 +16713,30 @@
       <c r="G763" s="6"/>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A764" s="38" t="s">
+      <c r="A764" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B764" s="39"/>
-      <c r="C764" s="40"/>
-      <c r="E764" s="38" t="s">
+      <c r="B764" s="36"/>
+      <c r="C764" s="37"/>
+      <c r="E764" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F764" s="39"/>
-      <c r="G764" s="40"/>
+      <c r="F764" s="36"/>
+      <c r="G764" s="37"/>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A765" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B765" s="9"/>
-      <c r="C765" s="35" t="s">
+      <c r="C765" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E765" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F765" s="9"/>
-      <c r="G765" s="35" t="s">
+      <c r="G765" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15768,14 +16747,14 @@
       <c r="B766" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C766" s="36"/>
+      <c r="C766" s="39"/>
       <c r="E766" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F766" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G766" s="36"/>
+      <c r="G766" s="39"/>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A767" s="17"/>
@@ -15810,19 +16789,19 @@
       </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A771" s="37" t="str">
+      <c r="A771" s="40" t="str">
         <f t="shared" ref="A771" si="139">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B771" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B771" s="40"/>
       <c r="C771" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E771" s="37" t="str">
+      <c r="E771" s="40" t="str">
         <f t="shared" ref="E771" si="140">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F771" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F771" s="40"/>
       <c r="G771" s="7" t="s">
         <v>6</v>
       </c>
@@ -15860,30 +16839,30 @@
       <c r="G773" s="6"/>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A774" s="38" t="s">
+      <c r="A774" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B774" s="39"/>
-      <c r="C774" s="40"/>
-      <c r="E774" s="38" t="s">
+      <c r="B774" s="36"/>
+      <c r="C774" s="37"/>
+      <c r="E774" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F774" s="39"/>
-      <c r="G774" s="40"/>
+      <c r="F774" s="36"/>
+      <c r="G774" s="37"/>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A775" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B775" s="9"/>
-      <c r="C775" s="35" t="s">
+      <c r="C775" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E775" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F775" s="9"/>
-      <c r="G775" s="35" t="s">
+      <c r="G775" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15894,14 +16873,14 @@
       <c r="B776" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C776" s="36"/>
+      <c r="C776" s="39"/>
       <c r="E776" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F776" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G776" s="36"/>
+      <c r="G776" s="39"/>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A777" s="17"/>
@@ -15937,20 +16916,20 @@
       </c>
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A786" s="41" t="str">
+      <c r="A786" s="45" t="str">
         <f>E786</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B786" s="41"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B786" s="45"/>
       <c r="C786" s="21" t="s">
         <v>6</v>
       </c>
       <c r="D786" s="22"/>
-      <c r="E786" s="37" t="str">
+      <c r="E786" s="40" t="str">
         <f t="shared" ref="E786" si="141">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F786" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F786" s="40"/>
       <c r="G786" s="7" t="s">
         <v>6</v>
       </c>
@@ -15988,24 +16967,24 @@
       <c r="G788" s="6"/>
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A789" s="42" t="s">
+      <c r="A789" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B789" s="43"/>
-      <c r="C789" s="44"/>
+      <c r="B789" s="47"/>
+      <c r="C789" s="48"/>
       <c r="D789" s="22"/>
-      <c r="E789" s="38" t="s">
+      <c r="E789" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F789" s="39"/>
-      <c r="G789" s="40"/>
+      <c r="F789" s="36"/>
+      <c r="G789" s="37"/>
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A790" s="29" t="s">
         <v>11</v>
       </c>
       <c r="B790" s="30"/>
-      <c r="C790" s="45" t="s">
+      <c r="C790" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D790" s="22"/>
@@ -16013,7 +16992,7 @@
         <v>11</v>
       </c>
       <c r="F790" s="9"/>
-      <c r="G790" s="35" t="s">
+      <c r="G790" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16024,7 +17003,7 @@
       <c r="B791" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C791" s="46"/>
+      <c r="C791" s="42"/>
       <c r="D791" s="22"/>
       <c r="E791" s="5" t="s">
         <v>7</v>
@@ -16032,7 +17011,7 @@
       <c r="F791" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G791" s="36"/>
+      <c r="G791" s="39"/>
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A792" s="31"/>
@@ -16068,19 +17047,19 @@
       </c>
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A796" s="47" t="str">
+      <c r="A796" s="43" t="str">
         <f>$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B796" s="48"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B796" s="44"/>
       <c r="C796" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E796" s="37" t="str">
+      <c r="E796" s="40" t="str">
         <f t="shared" ref="E796" si="142">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F796" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F796" s="40"/>
       <c r="G796" s="7" t="s">
         <v>6</v>
       </c>
@@ -16118,30 +17097,30 @@
       <c r="G798" s="6"/>
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A799" s="38" t="s">
+      <c r="A799" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B799" s="39"/>
-      <c r="C799" s="40"/>
-      <c r="E799" s="38" t="s">
+      <c r="B799" s="36"/>
+      <c r="C799" s="37"/>
+      <c r="E799" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F799" s="39"/>
-      <c r="G799" s="40"/>
+      <c r="F799" s="36"/>
+      <c r="G799" s="37"/>
     </row>
     <row r="800" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A800" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B800" s="9"/>
-      <c r="C800" s="35" t="s">
+      <c r="C800" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E800" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F800" s="9"/>
-      <c r="G800" s="35" t="s">
+      <c r="G800" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16152,14 +17131,14 @@
       <c r="B801" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C801" s="36"/>
+      <c r="C801" s="39"/>
       <c r="E801" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F801" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G801" s="36"/>
+      <c r="G801" s="39"/>
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A802" s="17"/>
@@ -16194,19 +17173,19 @@
       </c>
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A806" s="37" t="str">
+      <c r="A806" s="40" t="str">
         <f t="shared" ref="A806" si="143">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B806" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B806" s="40"/>
       <c r="C806" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E806" s="37" t="str">
+      <c r="E806" s="40" t="str">
         <f t="shared" ref="E806" si="144">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F806" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F806" s="40"/>
       <c r="G806" s="7" t="s">
         <v>6</v>
       </c>
@@ -16244,30 +17223,30 @@
       <c r="G808" s="6"/>
     </row>
     <row r="809" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A809" s="38" t="s">
+      <c r="A809" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B809" s="39"/>
-      <c r="C809" s="40"/>
-      <c r="E809" s="38" t="s">
+      <c r="B809" s="36"/>
+      <c r="C809" s="37"/>
+      <c r="E809" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F809" s="39"/>
-      <c r="G809" s="40"/>
+      <c r="F809" s="36"/>
+      <c r="G809" s="37"/>
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A810" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B810" s="9"/>
-      <c r="C810" s="35" t="s">
+      <c r="C810" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E810" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F810" s="9"/>
-      <c r="G810" s="35" t="s">
+      <c r="G810" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16278,14 +17257,14 @@
       <c r="B811" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C811" s="36"/>
+      <c r="C811" s="39"/>
       <c r="E811" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F811" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G811" s="36"/>
+      <c r="G811" s="39"/>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A812" s="17"/>
@@ -16320,19 +17299,19 @@
       </c>
     </row>
     <row r="816" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A816" s="37" t="str">
+      <c r="A816" s="40" t="str">
         <f t="shared" ref="A816" si="145">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B816" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B816" s="40"/>
       <c r="C816" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E816" s="37" t="str">
+      <c r="E816" s="40" t="str">
         <f t="shared" ref="E816" si="146">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F816" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F816" s="40"/>
       <c r="G816" s="7" t="s">
         <v>6</v>
       </c>
@@ -16370,30 +17349,30 @@
       <c r="G818" s="6"/>
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A819" s="38" t="s">
+      <c r="A819" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B819" s="39"/>
-      <c r="C819" s="40"/>
-      <c r="E819" s="38" t="s">
+      <c r="B819" s="36"/>
+      <c r="C819" s="37"/>
+      <c r="E819" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F819" s="39"/>
-      <c r="G819" s="40"/>
+      <c r="F819" s="36"/>
+      <c r="G819" s="37"/>
     </row>
     <row r="820" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A820" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B820" s="9"/>
-      <c r="C820" s="35" t="s">
+      <c r="C820" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E820" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F820" s="9"/>
-      <c r="G820" s="35" t="s">
+      <c r="G820" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16404,14 +17383,14 @@
       <c r="B821" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C821" s="36"/>
+      <c r="C821" s="39"/>
       <c r="E821" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F821" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G821" s="36"/>
+      <c r="G821" s="39"/>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A822" s="17"/>
@@ -16446,19 +17425,19 @@
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A826" s="37" t="str">
+      <c r="A826" s="40" t="str">
         <f t="shared" ref="A826" si="147">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B826" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B826" s="40"/>
       <c r="C826" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E826" s="37" t="str">
+      <c r="E826" s="40" t="str">
         <f t="shared" ref="E826" si="148">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F826" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F826" s="40"/>
       <c r="G826" s="7" t="s">
         <v>6</v>
       </c>
@@ -16496,30 +17475,30 @@
       <c r="G828" s="6"/>
     </row>
     <row r="829" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A829" s="38" t="s">
+      <c r="A829" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B829" s="39"/>
-      <c r="C829" s="40"/>
-      <c r="E829" s="38" t="s">
+      <c r="B829" s="36"/>
+      <c r="C829" s="37"/>
+      <c r="E829" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F829" s="39"/>
-      <c r="G829" s="40"/>
+      <c r="F829" s="36"/>
+      <c r="G829" s="37"/>
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A830" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B830" s="9"/>
-      <c r="C830" s="35" t="s">
+      <c r="C830" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E830" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F830" s="9"/>
-      <c r="G830" s="35" t="s">
+      <c r="G830" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16530,14 +17509,14 @@
       <c r="B831" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C831" s="36"/>
+      <c r="C831" s="39"/>
       <c r="E831" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F831" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G831" s="36"/>
+      <c r="G831" s="39"/>
     </row>
     <row r="832" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A832" s="17"/>
@@ -16572,19 +17551,19 @@
       </c>
     </row>
     <row r="836" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A836" s="37" t="str">
+      <c r="A836" s="40" t="str">
         <f t="shared" ref="A836" si="149">$A$36</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="B836" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="B836" s="40"/>
       <c r="C836" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E836" s="37" t="str">
+      <c r="E836" s="40" t="str">
         <f t="shared" ref="E836" si="150">$A$6</f>
-        <v>FECHA: 18/05/2019</v>
-      </c>
-      <c r="F836" s="37"/>
+        <v>FECHA:14/12/2019</v>
+      </c>
+      <c r="F836" s="40"/>
       <c r="G836" s="7" t="s">
         <v>6</v>
       </c>
@@ -16622,30 +17601,30 @@
       <c r="G838" s="6"/>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A839" s="38" t="s">
+      <c r="A839" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B839" s="39"/>
-      <c r="C839" s="40"/>
-      <c r="E839" s="38" t="s">
+      <c r="B839" s="36"/>
+      <c r="C839" s="37"/>
+      <c r="E839" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F839" s="39"/>
-      <c r="G839" s="40"/>
+      <c r="F839" s="36"/>
+      <c r="G839" s="37"/>
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A840" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B840" s="9"/>
-      <c r="C840" s="35" t="s">
+      <c r="C840" s="38" t="s">
         <v>9</v>
       </c>
       <c r="E840" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F840" s="9"/>
-      <c r="G840" s="35" t="s">
+      <c r="G840" s="38" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16656,14 +17635,14 @@
       <c r="B841" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C841" s="36"/>
+      <c r="C841" s="39"/>
       <c r="E841" s="5" t="s">
         <v>7</v>
       </c>
       <c r="F841" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G841" s="36"/>
+      <c r="G841" s="39"/>
     </row>
     <row r="842" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A842" s="17"/>
@@ -16675,27 +17654,429 @@
     </row>
   </sheetData>
   <mergeCells count="468">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="C830:C831"/>
+    <mergeCell ref="G830:G831"/>
+    <mergeCell ref="A836:B836"/>
+    <mergeCell ref="E836:F836"/>
+    <mergeCell ref="A839:C839"/>
+    <mergeCell ref="E839:G839"/>
+    <mergeCell ref="C840:C841"/>
+    <mergeCell ref="G840:G841"/>
+    <mergeCell ref="A816:B816"/>
+    <mergeCell ref="E816:F816"/>
+    <mergeCell ref="A819:C819"/>
+    <mergeCell ref="E819:G819"/>
+    <mergeCell ref="C820:C821"/>
+    <mergeCell ref="G820:G821"/>
+    <mergeCell ref="A826:B826"/>
+    <mergeCell ref="E826:F826"/>
+    <mergeCell ref="A829:C829"/>
+    <mergeCell ref="E829:G829"/>
+    <mergeCell ref="C800:C801"/>
+    <mergeCell ref="G800:G801"/>
+    <mergeCell ref="A806:B806"/>
+    <mergeCell ref="E806:F806"/>
+    <mergeCell ref="A809:C809"/>
+    <mergeCell ref="E809:G809"/>
+    <mergeCell ref="C810:C811"/>
+    <mergeCell ref="G810:G811"/>
+    <mergeCell ref="A774:C774"/>
+    <mergeCell ref="E774:G774"/>
+    <mergeCell ref="C775:C776"/>
+    <mergeCell ref="G775:G776"/>
+    <mergeCell ref="A786:B786"/>
+    <mergeCell ref="E786:F786"/>
+    <mergeCell ref="A789:C789"/>
+    <mergeCell ref="E789:G789"/>
+    <mergeCell ref="C790:C791"/>
+    <mergeCell ref="G790:G791"/>
+    <mergeCell ref="A796:B796"/>
+    <mergeCell ref="E796:F796"/>
+    <mergeCell ref="A799:C799"/>
+    <mergeCell ref="E799:G799"/>
+    <mergeCell ref="A764:C764"/>
+    <mergeCell ref="E764:G764"/>
+    <mergeCell ref="C765:C766"/>
+    <mergeCell ref="G765:G766"/>
+    <mergeCell ref="A771:B771"/>
+    <mergeCell ref="E771:F771"/>
+    <mergeCell ref="A754:C754"/>
+    <mergeCell ref="E754:G754"/>
+    <mergeCell ref="C755:C756"/>
+    <mergeCell ref="G755:G756"/>
+    <mergeCell ref="A761:B761"/>
+    <mergeCell ref="E761:F761"/>
+    <mergeCell ref="A744:C744"/>
+    <mergeCell ref="E744:G744"/>
+    <mergeCell ref="C745:C746"/>
+    <mergeCell ref="G745:G746"/>
+    <mergeCell ref="A751:B751"/>
+    <mergeCell ref="E751:F751"/>
+    <mergeCell ref="A734:C734"/>
+    <mergeCell ref="E734:G734"/>
+    <mergeCell ref="C735:C736"/>
+    <mergeCell ref="G735:G736"/>
+    <mergeCell ref="A741:B741"/>
+    <mergeCell ref="E741:F741"/>
+    <mergeCell ref="A724:C724"/>
+    <mergeCell ref="E724:G724"/>
+    <mergeCell ref="C725:C726"/>
+    <mergeCell ref="G725:G726"/>
+    <mergeCell ref="A731:B731"/>
+    <mergeCell ref="E731:F731"/>
+    <mergeCell ref="A709:C709"/>
+    <mergeCell ref="E709:G709"/>
+    <mergeCell ref="C710:C711"/>
+    <mergeCell ref="G710:G711"/>
+    <mergeCell ref="A721:B721"/>
+    <mergeCell ref="E721:F721"/>
+    <mergeCell ref="A699:C699"/>
+    <mergeCell ref="E699:G699"/>
+    <mergeCell ref="C700:C701"/>
+    <mergeCell ref="G700:G701"/>
+    <mergeCell ref="A706:B706"/>
+    <mergeCell ref="E706:F706"/>
+    <mergeCell ref="A689:C689"/>
+    <mergeCell ref="E689:G689"/>
+    <mergeCell ref="C690:C691"/>
+    <mergeCell ref="G690:G691"/>
+    <mergeCell ref="A696:B696"/>
+    <mergeCell ref="E696:F696"/>
+    <mergeCell ref="A679:C679"/>
+    <mergeCell ref="E679:G679"/>
+    <mergeCell ref="C680:C681"/>
+    <mergeCell ref="G680:G681"/>
+    <mergeCell ref="A686:B686"/>
+    <mergeCell ref="E686:F686"/>
+    <mergeCell ref="A669:C669"/>
+    <mergeCell ref="E669:G669"/>
+    <mergeCell ref="C670:C671"/>
+    <mergeCell ref="G670:G671"/>
+    <mergeCell ref="A676:B676"/>
+    <mergeCell ref="E676:F676"/>
+    <mergeCell ref="A659:C659"/>
+    <mergeCell ref="E659:G659"/>
+    <mergeCell ref="C660:C661"/>
+    <mergeCell ref="G660:G661"/>
+    <mergeCell ref="A666:B666"/>
+    <mergeCell ref="E666:F666"/>
+    <mergeCell ref="A644:C644"/>
+    <mergeCell ref="E644:G644"/>
+    <mergeCell ref="C645:C646"/>
+    <mergeCell ref="G645:G646"/>
+    <mergeCell ref="A656:B656"/>
+    <mergeCell ref="E656:F656"/>
+    <mergeCell ref="A634:C634"/>
+    <mergeCell ref="E634:G634"/>
+    <mergeCell ref="C635:C636"/>
+    <mergeCell ref="G635:G636"/>
+    <mergeCell ref="A641:B641"/>
+    <mergeCell ref="E641:F641"/>
+    <mergeCell ref="A624:C624"/>
+    <mergeCell ref="E624:G624"/>
+    <mergeCell ref="C625:C626"/>
+    <mergeCell ref="G625:G626"/>
+    <mergeCell ref="A631:B631"/>
+    <mergeCell ref="E631:F631"/>
+    <mergeCell ref="A614:C614"/>
+    <mergeCell ref="E614:G614"/>
+    <mergeCell ref="C615:C616"/>
+    <mergeCell ref="G615:G616"/>
+    <mergeCell ref="A621:B621"/>
+    <mergeCell ref="E621:F621"/>
+    <mergeCell ref="A604:C604"/>
+    <mergeCell ref="E604:G604"/>
+    <mergeCell ref="C605:C606"/>
+    <mergeCell ref="G605:G606"/>
+    <mergeCell ref="A611:B611"/>
+    <mergeCell ref="E611:F611"/>
+    <mergeCell ref="A594:C594"/>
+    <mergeCell ref="E594:G594"/>
+    <mergeCell ref="C595:C596"/>
+    <mergeCell ref="G595:G596"/>
+    <mergeCell ref="A601:B601"/>
+    <mergeCell ref="E601:F601"/>
+    <mergeCell ref="A579:C579"/>
+    <mergeCell ref="E579:G579"/>
+    <mergeCell ref="C580:C581"/>
+    <mergeCell ref="G580:G581"/>
+    <mergeCell ref="A591:B591"/>
+    <mergeCell ref="E591:F591"/>
+    <mergeCell ref="A569:C569"/>
+    <mergeCell ref="E569:G569"/>
+    <mergeCell ref="C570:C571"/>
+    <mergeCell ref="G570:G571"/>
+    <mergeCell ref="A576:B576"/>
+    <mergeCell ref="E576:F576"/>
+    <mergeCell ref="A559:C559"/>
+    <mergeCell ref="E559:G559"/>
+    <mergeCell ref="C560:C561"/>
+    <mergeCell ref="G560:G561"/>
+    <mergeCell ref="A566:B566"/>
+    <mergeCell ref="E566:F566"/>
+    <mergeCell ref="A549:C549"/>
+    <mergeCell ref="E549:G549"/>
+    <mergeCell ref="C550:C551"/>
+    <mergeCell ref="G550:G551"/>
+    <mergeCell ref="A556:B556"/>
+    <mergeCell ref="E556:F556"/>
+    <mergeCell ref="A539:C539"/>
+    <mergeCell ref="E539:G539"/>
+    <mergeCell ref="C540:C541"/>
+    <mergeCell ref="G540:G541"/>
+    <mergeCell ref="A546:B546"/>
+    <mergeCell ref="E546:F546"/>
+    <mergeCell ref="A529:C529"/>
+    <mergeCell ref="E529:G529"/>
+    <mergeCell ref="C530:C531"/>
+    <mergeCell ref="G530:G531"/>
+    <mergeCell ref="A536:B536"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A514:C514"/>
+    <mergeCell ref="E514:G514"/>
+    <mergeCell ref="C515:C516"/>
+    <mergeCell ref="G515:G516"/>
+    <mergeCell ref="A526:B526"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="A504:C504"/>
+    <mergeCell ref="E504:G504"/>
+    <mergeCell ref="C505:C506"/>
+    <mergeCell ref="G505:G506"/>
+    <mergeCell ref="A511:B511"/>
+    <mergeCell ref="E511:F511"/>
+    <mergeCell ref="A494:C494"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="C495:C496"/>
+    <mergeCell ref="G495:G496"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="E501:F501"/>
+    <mergeCell ref="A484:C484"/>
+    <mergeCell ref="E484:G484"/>
+    <mergeCell ref="C485:C486"/>
+    <mergeCell ref="G485:G486"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="E491:F491"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="E474:G474"/>
+    <mergeCell ref="C475:C476"/>
+    <mergeCell ref="G475:G476"/>
+    <mergeCell ref="A481:B481"/>
+    <mergeCell ref="E481:F481"/>
+    <mergeCell ref="A464:C464"/>
+    <mergeCell ref="E464:G464"/>
+    <mergeCell ref="C465:C466"/>
+    <mergeCell ref="G465:G466"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="E471:F471"/>
+    <mergeCell ref="A449:C449"/>
+    <mergeCell ref="E449:G449"/>
+    <mergeCell ref="C450:C451"/>
+    <mergeCell ref="G450:G451"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="E461:F461"/>
+    <mergeCell ref="A439:C439"/>
+    <mergeCell ref="E439:G439"/>
+    <mergeCell ref="C440:C441"/>
+    <mergeCell ref="G440:G441"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="E446:F446"/>
+    <mergeCell ref="A429:C429"/>
+    <mergeCell ref="E429:G429"/>
+    <mergeCell ref="C430:C431"/>
+    <mergeCell ref="G430:G431"/>
+    <mergeCell ref="A436:B436"/>
+    <mergeCell ref="E436:F436"/>
+    <mergeCell ref="A419:C419"/>
+    <mergeCell ref="E419:G419"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="G420:G421"/>
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="E426:F426"/>
+    <mergeCell ref="A409:C409"/>
+    <mergeCell ref="E409:G409"/>
+    <mergeCell ref="C410:C411"/>
+    <mergeCell ref="G410:G411"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="E416:F416"/>
+    <mergeCell ref="A399:C399"/>
+    <mergeCell ref="E399:G399"/>
+    <mergeCell ref="C400:C401"/>
+    <mergeCell ref="G400:G401"/>
+    <mergeCell ref="A406:B406"/>
+    <mergeCell ref="E406:F406"/>
+    <mergeCell ref="A384:C384"/>
+    <mergeCell ref="E384:G384"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="G385:G386"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="E396:F396"/>
+    <mergeCell ref="A374:C374"/>
+    <mergeCell ref="E374:G374"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="G375:G376"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="A364:C364"/>
+    <mergeCell ref="E364:G364"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="G365:G366"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="E371:F371"/>
+    <mergeCell ref="A354:C354"/>
+    <mergeCell ref="E354:G354"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="G355:G356"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="E361:F361"/>
+    <mergeCell ref="A344:C344"/>
+    <mergeCell ref="E344:G344"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="G345:G346"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="E351:F351"/>
+    <mergeCell ref="A334:C334"/>
+    <mergeCell ref="E334:G334"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="G335:G336"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="A319:C319"/>
+    <mergeCell ref="E319:G319"/>
+    <mergeCell ref="C320:C321"/>
+    <mergeCell ref="G320:G321"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="A309:C309"/>
+    <mergeCell ref="E309:G309"/>
+    <mergeCell ref="C310:C311"/>
+    <mergeCell ref="G310:G311"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="A299:C299"/>
+    <mergeCell ref="E299:G299"/>
+    <mergeCell ref="C300:C301"/>
+    <mergeCell ref="G300:G301"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="E306:F306"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="E289:G289"/>
+    <mergeCell ref="C290:C291"/>
+    <mergeCell ref="G290:G291"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="E296:F296"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="E279:G279"/>
+    <mergeCell ref="C280:C281"/>
+    <mergeCell ref="G280:G281"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="E286:F286"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="E269:G269"/>
+    <mergeCell ref="C270:C271"/>
+    <mergeCell ref="G270:G271"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="E254:G254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="G255:G256"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="G245:G246"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="E251:F251"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="E234:G234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="G235:G236"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="A224:C224"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="G225:G226"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="E214:G214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="G215:G216"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="A204:C204"/>
+    <mergeCell ref="E204:G204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="G205:G206"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="A189:C189"/>
+    <mergeCell ref="E189:G189"/>
+    <mergeCell ref="C190:C191"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="A179:C179"/>
+    <mergeCell ref="E179:G179"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="A169:C169"/>
+    <mergeCell ref="E169:G169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="E139:G139"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="G140:G141"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="E124:G124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="G125:G126"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="E121:F121"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="E91:F91"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="E84:G84"/>
@@ -16720,429 +18101,27 @@
     <mergeCell ref="E59:G59"/>
     <mergeCell ref="G60:G61"/>
     <mergeCell ref="A71:B71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="E121:F121"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="E139:G139"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="G140:G141"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="E124:G124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="G125:G126"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="A179:C179"/>
-    <mergeCell ref="E179:G179"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="A169:C169"/>
-    <mergeCell ref="E169:G169"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="A204:C204"/>
-    <mergeCell ref="E204:G204"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="G205:G206"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="A189:C189"/>
-    <mergeCell ref="E189:G189"/>
-    <mergeCell ref="C190:C191"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="A224:C224"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="G225:G226"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="E214:G214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="G215:G216"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="A244:C244"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="G245:G246"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="E251:F251"/>
-    <mergeCell ref="A234:C234"/>
-    <mergeCell ref="E234:G234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="G235:G236"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="E269:G269"/>
-    <mergeCell ref="C270:C271"/>
-    <mergeCell ref="G270:G271"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="E276:F276"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="E254:G254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="G255:G256"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="E266:F266"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="E289:G289"/>
-    <mergeCell ref="C290:C291"/>
-    <mergeCell ref="G290:G291"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="E296:F296"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="E279:G279"/>
-    <mergeCell ref="C280:C281"/>
-    <mergeCell ref="G280:G281"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="E286:F286"/>
-    <mergeCell ref="A309:C309"/>
-    <mergeCell ref="E309:G309"/>
-    <mergeCell ref="C310:C311"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="A299:C299"/>
-    <mergeCell ref="E299:G299"/>
-    <mergeCell ref="C300:C301"/>
-    <mergeCell ref="G300:G301"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="E306:F306"/>
-    <mergeCell ref="A334:C334"/>
-    <mergeCell ref="E334:G334"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="G335:G336"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="A319:C319"/>
-    <mergeCell ref="E319:G319"/>
-    <mergeCell ref="C320:C321"/>
-    <mergeCell ref="G320:G321"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="A354:C354"/>
-    <mergeCell ref="E354:G354"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="G355:G356"/>
-    <mergeCell ref="A361:B361"/>
-    <mergeCell ref="E361:F361"/>
-    <mergeCell ref="A344:C344"/>
-    <mergeCell ref="E344:G344"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="G345:G346"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="E351:F351"/>
-    <mergeCell ref="A374:C374"/>
-    <mergeCell ref="E374:G374"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="G375:G376"/>
-    <mergeCell ref="A381:B381"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="A364:C364"/>
-    <mergeCell ref="E364:G364"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="G365:G366"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="E371:F371"/>
-    <mergeCell ref="A399:C399"/>
-    <mergeCell ref="E399:G399"/>
-    <mergeCell ref="C400:C401"/>
-    <mergeCell ref="G400:G401"/>
-    <mergeCell ref="A406:B406"/>
-    <mergeCell ref="E406:F406"/>
-    <mergeCell ref="A384:C384"/>
-    <mergeCell ref="E384:G384"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="G385:G386"/>
-    <mergeCell ref="A396:B396"/>
-    <mergeCell ref="E396:F396"/>
-    <mergeCell ref="A419:C419"/>
-    <mergeCell ref="E419:G419"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="G420:G421"/>
-    <mergeCell ref="A426:B426"/>
-    <mergeCell ref="E426:F426"/>
-    <mergeCell ref="A409:C409"/>
-    <mergeCell ref="E409:G409"/>
-    <mergeCell ref="C410:C411"/>
-    <mergeCell ref="G410:G411"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="E416:F416"/>
-    <mergeCell ref="A439:C439"/>
-    <mergeCell ref="E439:G439"/>
-    <mergeCell ref="C440:C441"/>
-    <mergeCell ref="G440:G441"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="E446:F446"/>
-    <mergeCell ref="A429:C429"/>
-    <mergeCell ref="E429:G429"/>
-    <mergeCell ref="C430:C431"/>
-    <mergeCell ref="G430:G431"/>
-    <mergeCell ref="A436:B436"/>
-    <mergeCell ref="E436:F436"/>
-    <mergeCell ref="A464:C464"/>
-    <mergeCell ref="E464:G464"/>
-    <mergeCell ref="C465:C466"/>
-    <mergeCell ref="G465:G466"/>
-    <mergeCell ref="A471:B471"/>
-    <mergeCell ref="E471:F471"/>
-    <mergeCell ref="A449:C449"/>
-    <mergeCell ref="E449:G449"/>
-    <mergeCell ref="C450:C451"/>
-    <mergeCell ref="G450:G451"/>
-    <mergeCell ref="A461:B461"/>
-    <mergeCell ref="E461:F461"/>
-    <mergeCell ref="A484:C484"/>
-    <mergeCell ref="E484:G484"/>
-    <mergeCell ref="C485:C486"/>
-    <mergeCell ref="G485:G486"/>
-    <mergeCell ref="A491:B491"/>
-    <mergeCell ref="E491:F491"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="E474:G474"/>
-    <mergeCell ref="C475:C476"/>
-    <mergeCell ref="G475:G476"/>
-    <mergeCell ref="A481:B481"/>
-    <mergeCell ref="E481:F481"/>
-    <mergeCell ref="A504:C504"/>
-    <mergeCell ref="E504:G504"/>
-    <mergeCell ref="C505:C506"/>
-    <mergeCell ref="G505:G506"/>
-    <mergeCell ref="A511:B511"/>
-    <mergeCell ref="E511:F511"/>
-    <mergeCell ref="A494:C494"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="C495:C496"/>
-    <mergeCell ref="G495:G496"/>
-    <mergeCell ref="A501:B501"/>
-    <mergeCell ref="E501:F501"/>
-    <mergeCell ref="A529:C529"/>
-    <mergeCell ref="E529:G529"/>
-    <mergeCell ref="C530:C531"/>
-    <mergeCell ref="G530:G531"/>
-    <mergeCell ref="A536:B536"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="A514:C514"/>
-    <mergeCell ref="E514:G514"/>
-    <mergeCell ref="C515:C516"/>
-    <mergeCell ref="G515:G516"/>
-    <mergeCell ref="A526:B526"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="A549:C549"/>
-    <mergeCell ref="E549:G549"/>
-    <mergeCell ref="C550:C551"/>
-    <mergeCell ref="G550:G551"/>
-    <mergeCell ref="A556:B556"/>
-    <mergeCell ref="E556:F556"/>
-    <mergeCell ref="A539:C539"/>
-    <mergeCell ref="E539:G539"/>
-    <mergeCell ref="C540:C541"/>
-    <mergeCell ref="G540:G541"/>
-    <mergeCell ref="A546:B546"/>
-    <mergeCell ref="E546:F546"/>
-    <mergeCell ref="A569:C569"/>
-    <mergeCell ref="E569:G569"/>
-    <mergeCell ref="C570:C571"/>
-    <mergeCell ref="G570:G571"/>
-    <mergeCell ref="A576:B576"/>
-    <mergeCell ref="E576:F576"/>
-    <mergeCell ref="A559:C559"/>
-    <mergeCell ref="E559:G559"/>
-    <mergeCell ref="C560:C561"/>
-    <mergeCell ref="G560:G561"/>
-    <mergeCell ref="A566:B566"/>
-    <mergeCell ref="E566:F566"/>
-    <mergeCell ref="A594:C594"/>
-    <mergeCell ref="E594:G594"/>
-    <mergeCell ref="C595:C596"/>
-    <mergeCell ref="G595:G596"/>
-    <mergeCell ref="A601:B601"/>
-    <mergeCell ref="E601:F601"/>
-    <mergeCell ref="A579:C579"/>
-    <mergeCell ref="E579:G579"/>
-    <mergeCell ref="C580:C581"/>
-    <mergeCell ref="G580:G581"/>
-    <mergeCell ref="A591:B591"/>
-    <mergeCell ref="E591:F591"/>
-    <mergeCell ref="A614:C614"/>
-    <mergeCell ref="E614:G614"/>
-    <mergeCell ref="C615:C616"/>
-    <mergeCell ref="G615:G616"/>
-    <mergeCell ref="A621:B621"/>
-    <mergeCell ref="E621:F621"/>
-    <mergeCell ref="A604:C604"/>
-    <mergeCell ref="E604:G604"/>
-    <mergeCell ref="C605:C606"/>
-    <mergeCell ref="G605:G606"/>
-    <mergeCell ref="A611:B611"/>
-    <mergeCell ref="E611:F611"/>
-    <mergeCell ref="A634:C634"/>
-    <mergeCell ref="E634:G634"/>
-    <mergeCell ref="C635:C636"/>
-    <mergeCell ref="G635:G636"/>
-    <mergeCell ref="A641:B641"/>
-    <mergeCell ref="E641:F641"/>
-    <mergeCell ref="A624:C624"/>
-    <mergeCell ref="E624:G624"/>
-    <mergeCell ref="C625:C626"/>
-    <mergeCell ref="G625:G626"/>
-    <mergeCell ref="A631:B631"/>
-    <mergeCell ref="E631:F631"/>
-    <mergeCell ref="A659:C659"/>
-    <mergeCell ref="E659:G659"/>
-    <mergeCell ref="C660:C661"/>
-    <mergeCell ref="G660:G661"/>
-    <mergeCell ref="A666:B666"/>
-    <mergeCell ref="E666:F666"/>
-    <mergeCell ref="A644:C644"/>
-    <mergeCell ref="E644:G644"/>
-    <mergeCell ref="C645:C646"/>
-    <mergeCell ref="G645:G646"/>
-    <mergeCell ref="A656:B656"/>
-    <mergeCell ref="E656:F656"/>
-    <mergeCell ref="A679:C679"/>
-    <mergeCell ref="E679:G679"/>
-    <mergeCell ref="C680:C681"/>
-    <mergeCell ref="G680:G681"/>
-    <mergeCell ref="A686:B686"/>
-    <mergeCell ref="E686:F686"/>
-    <mergeCell ref="A669:C669"/>
-    <mergeCell ref="E669:G669"/>
-    <mergeCell ref="C670:C671"/>
-    <mergeCell ref="G670:G671"/>
-    <mergeCell ref="A676:B676"/>
-    <mergeCell ref="E676:F676"/>
-    <mergeCell ref="A699:C699"/>
-    <mergeCell ref="E699:G699"/>
-    <mergeCell ref="C700:C701"/>
-    <mergeCell ref="G700:G701"/>
-    <mergeCell ref="A706:B706"/>
-    <mergeCell ref="E706:F706"/>
-    <mergeCell ref="A689:C689"/>
-    <mergeCell ref="E689:G689"/>
-    <mergeCell ref="C690:C691"/>
-    <mergeCell ref="G690:G691"/>
-    <mergeCell ref="A696:B696"/>
-    <mergeCell ref="E696:F696"/>
-    <mergeCell ref="A724:C724"/>
-    <mergeCell ref="E724:G724"/>
-    <mergeCell ref="C725:C726"/>
-    <mergeCell ref="G725:G726"/>
-    <mergeCell ref="A731:B731"/>
-    <mergeCell ref="E731:F731"/>
-    <mergeCell ref="A709:C709"/>
-    <mergeCell ref="E709:G709"/>
-    <mergeCell ref="C710:C711"/>
-    <mergeCell ref="G710:G711"/>
-    <mergeCell ref="A721:B721"/>
-    <mergeCell ref="E721:F721"/>
-    <mergeCell ref="A744:C744"/>
-    <mergeCell ref="E744:G744"/>
-    <mergeCell ref="C745:C746"/>
-    <mergeCell ref="G745:G746"/>
-    <mergeCell ref="A751:B751"/>
-    <mergeCell ref="E751:F751"/>
-    <mergeCell ref="A734:C734"/>
-    <mergeCell ref="E734:G734"/>
-    <mergeCell ref="C735:C736"/>
-    <mergeCell ref="G735:G736"/>
-    <mergeCell ref="A741:B741"/>
-    <mergeCell ref="E741:F741"/>
-    <mergeCell ref="A764:C764"/>
-    <mergeCell ref="E764:G764"/>
-    <mergeCell ref="C765:C766"/>
-    <mergeCell ref="G765:G766"/>
-    <mergeCell ref="A771:B771"/>
-    <mergeCell ref="E771:F771"/>
-    <mergeCell ref="A754:C754"/>
-    <mergeCell ref="E754:G754"/>
-    <mergeCell ref="C755:C756"/>
-    <mergeCell ref="G755:G756"/>
-    <mergeCell ref="A761:B761"/>
-    <mergeCell ref="E761:F761"/>
-    <mergeCell ref="C800:C801"/>
-    <mergeCell ref="G800:G801"/>
-    <mergeCell ref="A806:B806"/>
-    <mergeCell ref="E806:F806"/>
-    <mergeCell ref="A809:C809"/>
-    <mergeCell ref="E809:G809"/>
-    <mergeCell ref="C810:C811"/>
-    <mergeCell ref="G810:G811"/>
-    <mergeCell ref="A774:C774"/>
-    <mergeCell ref="E774:G774"/>
-    <mergeCell ref="C775:C776"/>
-    <mergeCell ref="G775:G776"/>
-    <mergeCell ref="A786:B786"/>
-    <mergeCell ref="E786:F786"/>
-    <mergeCell ref="A789:C789"/>
-    <mergeCell ref="E789:G789"/>
-    <mergeCell ref="C790:C791"/>
-    <mergeCell ref="G790:G791"/>
-    <mergeCell ref="A796:B796"/>
-    <mergeCell ref="E796:F796"/>
-    <mergeCell ref="A799:C799"/>
-    <mergeCell ref="E799:G799"/>
-    <mergeCell ref="C830:C831"/>
-    <mergeCell ref="G830:G831"/>
-    <mergeCell ref="A836:B836"/>
-    <mergeCell ref="E836:F836"/>
-    <mergeCell ref="A839:C839"/>
-    <mergeCell ref="E839:G839"/>
-    <mergeCell ref="C840:C841"/>
-    <mergeCell ref="G840:G841"/>
-    <mergeCell ref="A816:B816"/>
-    <mergeCell ref="E816:F816"/>
-    <mergeCell ref="A819:C819"/>
-    <mergeCell ref="E819:G819"/>
-    <mergeCell ref="C820:C821"/>
-    <mergeCell ref="G820:G821"/>
-    <mergeCell ref="A826:B826"/>
-    <mergeCell ref="E826:F826"/>
-    <mergeCell ref="A829:C829"/>
-    <mergeCell ref="E829:G829"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="93" orientation="portrait" r:id="rId1"/>
@@ -17165,7 +18144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17178,7 +18157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
